--- a/data_terciles.xlsx
+++ b/data_terciles.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E17B15-C2AE-C14D-871D-8BBB875B74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFCFE7-8AEE-8F4B-BF75-A1892F80DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{FB669BDA-7798-9640-B2B9-EABE7DDFC01C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$181</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="83">
   <si>
     <t>Variable</t>
   </si>
@@ -280,6 +283,12 @@
   <si>
     <t>Pool (Psych &amp; Complete)</t>
   </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
 </sst>
 </file>
 
@@ -304,12 +313,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -333,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,7 +356,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62:C91"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2530,7 +2547,7 @@
       <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>1.22428991185113E-2</v>
       </c>
       <c r="F32" s="3">
@@ -6057,7 +6074,5349 @@
         <v>0.82045194847036396</v>
       </c>
     </row>
+    <row r="92" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1.6715116279069801E-2</v>
+      </c>
+      <c r="F92" s="3">
+        <v>6.6090389627997403E-3</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2.53677052232468E-2</v>
+      </c>
+      <c r="H92" s="3">
+        <v>6.1773255813953501E-2</v>
+      </c>
+      <c r="I92" s="3">
+        <v>4.3143660987708998E-2</v>
+      </c>
+      <c r="J92" s="3">
+        <v>7.8949362268104895E-2</v>
+      </c>
+      <c r="K92" s="3">
+        <v>1.62200282087447E-2</v>
+      </c>
+      <c r="L92" s="3">
+        <v>6.4112910538562202E-3</v>
+      </c>
+      <c r="M92" s="3">
+        <v>2.46183281280902E-2</v>
+      </c>
+      <c r="N92" s="3">
+        <v>-4.9508807032505597E-4</v>
+      </c>
+      <c r="O92" s="3">
+        <v>-1.4010291369948399E-2</v>
+      </c>
+      <c r="P92" s="3">
+        <v>1.2996653344201199E-2</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0.94338933426390803</v>
+      </c>
+      <c r="R92" s="4">
+        <v>1.24473497569166E-5</v>
+      </c>
+      <c r="S92" s="4">
+        <v>8.7712152132546401E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2.92717098737359E-2</v>
+      </c>
+      <c r="F93" s="3">
+        <v>-3.8760909394824301E-2</v>
+      </c>
+      <c r="G93" s="3">
+        <v>9.7424641997914702E-2</v>
+      </c>
+      <c r="H93" s="3">
+        <v>7.6477292627820395E-2</v>
+      </c>
+      <c r="I93" s="3">
+        <v>-1.4710963519951501E-2</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.16846411875394199</v>
+      </c>
+      <c r="K93" s="3">
+        <v>7.2957701416683202E-2</v>
+      </c>
+      <c r="L93" s="3">
+        <v>4.8439131881327204E-3</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.140445256251685</v>
+      </c>
+      <c r="N93" s="3">
+        <v>4.41536123919231E-2</v>
+      </c>
+      <c r="O93" s="3">
+        <v>-5.1912972776715798E-2</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0.14053412435495799</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0.36540690192845099</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0.41753582921278198</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0.95172762253269605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="3">
+        <v>14.8860494151927</v>
+      </c>
+      <c r="F94" s="3">
+        <v>12.1744197469596</v>
+      </c>
+      <c r="G94" s="3">
+        <v>17.476260889587302</v>
+      </c>
+      <c r="H94" s="3">
+        <v>53.393142639094897</v>
+      </c>
+      <c r="I94" s="3">
+        <v>39.855197011290301</v>
+      </c>
+      <c r="J94" s="3">
+        <v>66.982680177859294</v>
+      </c>
+      <c r="K94" s="3">
+        <v>19.110888598499901</v>
+      </c>
+      <c r="L94" s="3">
+        <v>14.439914438518</v>
+      </c>
+      <c r="M94" s="3">
+        <v>23.8790857462199</v>
+      </c>
+      <c r="N94" s="3">
+        <v>4.2392786154681703</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-1.19950471346201</v>
+      </c>
+      <c r="P94" s="3">
+        <v>9.6755867371610496</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0.12999800487621099</v>
+      </c>
+      <c r="R94" s="4">
+        <v>4.7328753804975998E-8</v>
+      </c>
+      <c r="S94" s="4">
+        <v>2.8864321099941701E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.15043604651162801</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.12302979351427</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.176388811136892</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0.262354651162791</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0.22876171460320799</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0.29449409935028098</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0.13046544428772899</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0.105007574434078</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.15451287690583701</v>
+      </c>
+      <c r="N95" s="3">
+        <v>-2.0013653360448701E-2</v>
+      </c>
+      <c r="O95" s="3">
+        <v>-5.6659556109853203E-2</v>
+      </c>
+      <c r="P95" s="3">
+        <v>1.6667963831048401E-2</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0.28563864803734301</v>
+      </c>
+      <c r="R95" s="4">
+        <v>2.19603057072248E-7</v>
+      </c>
+      <c r="S95" s="4">
+        <v>3.3256086773292302E-10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="3">
+        <v>8.9047965116279109</v>
+      </c>
+      <c r="F96" s="3">
+        <v>8.6085855238574105</v>
+      </c>
+      <c r="G96" s="3">
+        <v>9.1980658965067494</v>
+      </c>
+      <c r="H96" s="3">
+        <v>9.4847383720930196</v>
+      </c>
+      <c r="I96" s="3">
+        <v>9.0951589875093894</v>
+      </c>
+      <c r="J96" s="3">
+        <v>9.8773005840507704</v>
+      </c>
+      <c r="K96" s="3">
+        <v>8.89633286318759</v>
+      </c>
+      <c r="L96" s="3">
+        <v>8.6234858609791605</v>
+      </c>
+      <c r="M96" s="3">
+        <v>9.1681172451244795</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-1.06172302948799E-2</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-0.41257373783282503</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0.38820922643462202</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0.959515377522968</v>
+      </c>
+      <c r="R96" s="3">
+        <v>2.0277205367921401E-2</v>
+      </c>
+      <c r="S96" s="3">
+        <v>1.55166256804566E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="3">
+        <v>35.706395348837198</v>
+      </c>
+      <c r="F97" s="3">
+        <v>34.942647515891501</v>
+      </c>
+      <c r="G97" s="3">
+        <v>36.474957564587001</v>
+      </c>
+      <c r="H97" s="3">
+        <v>38.087209302325597</v>
+      </c>
+      <c r="I97" s="3">
+        <v>37.052556172416097</v>
+      </c>
+      <c r="J97" s="3">
+        <v>39.124553640556698</v>
+      </c>
+      <c r="K97" s="3">
+        <v>35.469675599435803</v>
+      </c>
+      <c r="L97" s="3">
+        <v>34.707174089769303</v>
+      </c>
+      <c r="M97" s="3">
+        <v>36.238481571586597</v>
+      </c>
+      <c r="N97" s="3">
+        <v>-0.231850870862992</v>
+      </c>
+      <c r="O97" s="3">
+        <v>-1.32116829120551</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0.85587789945617898</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0.67094481897253899</v>
+      </c>
+      <c r="R97" s="3">
+        <v>2.9288591915022099E-4</v>
+      </c>
+      <c r="S97" s="4">
+        <v>6.81903058969979E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.22456395348837199</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.148959660239672</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.30217410269545902</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1.0603197674418601</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0.87016283956057106</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1.25381259129055</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0.28561354019746099</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0.20007316650933199</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.37314217716444398</v>
+      </c>
+      <c r="N98" s="3">
+        <v>5.9746777314921097E-2</v>
+      </c>
+      <c r="O98" s="3">
+        <v>-5.6128156579464697E-2</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0.17499611323388201</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0.31457988009235599</v>
+      </c>
+      <c r="R98" s="4">
+        <v>2.2204460492503099E-15</v>
+      </c>
+      <c r="S98" s="4">
+        <v>5.37569988523501E-13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.92659883720930203</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.90628201848378398</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.94546216756272705</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0.76962209302325602</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.73737379029775896</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0.80041690737666005</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0.91889985895627602</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0.89800680665985599</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.93838247401715302</v>
+      </c>
+      <c r="N99" s="3">
+        <v>-7.6344015482008301E-3</v>
+      </c>
+      <c r="O99" s="3">
+        <v>-3.5583446402718703E-2</v>
+      </c>
+      <c r="P99" s="3">
+        <v>2.05153228544982E-2</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0.59784205677493996</v>
+      </c>
+      <c r="R99" s="4">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="S99" s="4">
+        <v>5.3290705182007498E-15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7.2674418604651205E-4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1.39529648915705E-3</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3.7063953488372103E-2</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2.2344298916988602E-2</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5.0330119687662503E-2</v>
+      </c>
+      <c r="K100" s="3">
+        <v>7.0521861777150905E-4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-1.3539689485755301E-3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-6.4576704825007399E-5</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-4.3022732333430997E-3</v>
+      </c>
+      <c r="P100" s="3">
+        <v>3.38705197647675E-3</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0.98304115848774298</v>
+      </c>
+      <c r="R100" s="4">
+        <v>3.7059609203637901E-7</v>
+      </c>
+      <c r="S100" s="4">
+        <v>3.6405565762009902E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6.9040697674418602E-2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>4.9448848435013598E-2</v>
+      </c>
+      <c r="G101" s="3">
+        <v>8.7179058541730595E-2</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0.17223837209302301</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0.14332392303495001</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0.19969933277900301</v>
+      </c>
+      <c r="K101" s="3">
+        <v>7.5458392101551502E-2</v>
+      </c>
+      <c r="L101" s="3">
+        <v>5.5381145778909797E-2</v>
+      </c>
+      <c r="M101" s="3">
+        <v>9.4125201188650198E-2</v>
+      </c>
+      <c r="N101" s="3">
+        <v>6.4176944271328801E-3</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-2.0731425845960799E-2</v>
+      </c>
+      <c r="P101" s="3">
+        <v>3.36848222201203E-2</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0.64068756172325303</v>
+      </c>
+      <c r="R101" s="4">
+        <v>2.4703721290819699E-9</v>
+      </c>
+      <c r="S101" s="4">
+        <v>2.92240176502645E-8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4.0216995388893603E-3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-7.1523180481309706E-2</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6.3458000005755494E-2</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-4.59415551111221E-2</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-0.12649830211593599</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3.4339931621631098E-2</v>
+      </c>
+      <c r="K102" s="3">
+        <v>8.0937122828254895E-2</v>
+      </c>
+      <c r="L102" s="3">
+        <v>1.24446676471328E-2</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.149139616981187</v>
+      </c>
+      <c r="N102" s="3">
+        <v>8.5653864962089293E-2</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1.07725919213521E-2</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0.181657659826224</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>8.1568281402861806E-2</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0.433860365262068</v>
+      </c>
+      <c r="S102" s="3">
+        <v>1.8458381204040902E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2.1075581395348798E-2</v>
+      </c>
+      <c r="F103" s="3">
+        <v>9.7909929741396892E-3</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3.0906681444465001E-2</v>
+      </c>
+      <c r="H103" s="3">
+        <v>4.1424418604651202E-2</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2.59225118619455E-2</v>
+      </c>
+      <c r="J103" s="3">
+        <v>5.5472836975263798E-2</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1.9040902679830701E-2</v>
+      </c>
+      <c r="L103" s="3">
+        <v>8.4533046658575306E-3</v>
+      </c>
+      <c r="M103" s="3">
+        <v>2.82180634582609E-2</v>
+      </c>
+      <c r="N103" s="3">
+        <v>-7.1034375307508005E-4</v>
+      </c>
+      <c r="O103" s="3">
+        <v>-1.63953341474939E-2</v>
+      </c>
+      <c r="P103" s="3">
+        <v>1.38086244759307E-2</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>0.93150192362717499</v>
+      </c>
+      <c r="R103" s="3">
+        <v>2.8071878338149302E-2</v>
+      </c>
+      <c r="S103" s="3">
+        <v>1.3583050560361101E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="3">
+        <v>15.2256480172147</v>
+      </c>
+      <c r="F104" s="3">
+        <v>14.5075679368541</v>
+      </c>
+      <c r="G104" s="3">
+        <v>15.944807976074699</v>
+      </c>
+      <c r="H104" s="3">
+        <v>18.1146873723855</v>
+      </c>
+      <c r="I104" s="3">
+        <v>17.301798153965699</v>
+      </c>
+      <c r="J104" s="3">
+        <v>18.9270349054277</v>
+      </c>
+      <c r="K104" s="3">
+        <v>16.582065783379701</v>
+      </c>
+      <c r="L104" s="3">
+        <v>15.823045998925799</v>
+      </c>
+      <c r="M104" s="3">
+        <v>17.340601664841198</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1.35400854295637</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0.31020682766163798</v>
+      </c>
+      <c r="P104" s="3">
+        <v>2.4024462522432501</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>1.0702996666046899E-2</v>
+      </c>
+      <c r="R104" s="4">
+        <v>1.78987495713656E-7</v>
+      </c>
+      <c r="S104" s="3">
+        <v>6.8949311108028599E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="3">
+        <v>57.880813953488399</v>
+      </c>
+      <c r="F105" s="3">
+        <v>54.218922553063003</v>
+      </c>
+      <c r="G105" s="3">
+        <v>61.560314728054998</v>
+      </c>
+      <c r="H105" s="3">
+        <v>68.0595930232558</v>
+      </c>
+      <c r="I105" s="3">
+        <v>63.575521584175803</v>
+      </c>
+      <c r="J105" s="3">
+        <v>72.553840703649797</v>
+      </c>
+      <c r="K105" s="3">
+        <v>55.719322990126898</v>
+      </c>
+      <c r="L105" s="3">
+        <v>52.349721547483597</v>
+      </c>
+      <c r="M105" s="3">
+        <v>59.088796798918104</v>
+      </c>
+      <c r="N105" s="3">
+        <v>-2.1901240692754298</v>
+      </c>
+      <c r="O105" s="3">
+        <v>-7.1884692607452498</v>
+      </c>
+      <c r="P105" s="3">
+        <v>2.82141527051991</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>0.38852135441950197</v>
+      </c>
+      <c r="R105" s="3">
+        <v>5.8082820121230195E-4</v>
+      </c>
+      <c r="S105" s="4">
+        <v>1.6395552493664301E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="3">
+        <v>5.2757568898350898E-2</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4.4155005541657903E-2</v>
+      </c>
+      <c r="G106" s="3">
+        <v>6.14092646796984E-2</v>
+      </c>
+      <c r="H106" s="3">
+        <v>9.5678226556628901E-2</v>
+      </c>
+      <c r="I106" s="3">
+        <v>8.14500913629852E-2</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0.109927154087398</v>
+      </c>
+      <c r="K106" s="3">
+        <v>4.9458410106835798E-2</v>
+      </c>
+      <c r="L106" s="3">
+        <v>4.1363250860247697E-2</v>
+      </c>
+      <c r="M106" s="3">
+        <v>5.7521021549760097E-2</v>
+      </c>
+      <c r="N106" s="3">
+        <v>-3.2359840460841299E-3</v>
+      </c>
+      <c r="O106" s="3">
+        <v>-1.50193462681983E-2</v>
+      </c>
+      <c r="P106" s="3">
+        <v>8.5877925683757496E-3</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>0.59796518853831904</v>
+      </c>
+      <c r="R106" s="4">
+        <v>4.3478067079938398E-7</v>
+      </c>
+      <c r="S106" s="4">
+        <v>3.1359280061593602E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="3">
+        <v>6.6229887763891104E-2</v>
+      </c>
+      <c r="F107" s="3">
+        <v>-1.25558054473476E-3</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.133755926176471</v>
+      </c>
+      <c r="H107" s="3">
+        <v>-0.130602722689388</v>
+      </c>
+      <c r="I107" s="3">
+        <v>-0.21817364874217399</v>
+      </c>
+      <c r="J107" s="3">
+        <v>-4.2773990094332803E-2</v>
+      </c>
+      <c r="K107" s="3">
+        <v>3.5749437400252798E-2</v>
+      </c>
+      <c r="L107" s="3">
+        <v>-2.94945070399724E-2</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.101317347850156</v>
+      </c>
+      <c r="N107" s="3">
+        <v>-3.3339504680426998E-2</v>
+      </c>
+      <c r="O107" s="3">
+        <v>-0.128003839262049</v>
+      </c>
+      <c r="P107" s="3">
+        <v>6.0374403011732497E-2</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>0.48723075422080397</v>
+      </c>
+      <c r="R107" s="3">
+        <v>4.9047658357626001E-4</v>
+      </c>
+      <c r="S107" s="3">
+        <v>2.8801747784439301E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="3">
+        <v>240.704637128466</v>
+      </c>
+      <c r="F108" s="3">
+        <v>207.758183134826</v>
+      </c>
+      <c r="G108" s="3">
+        <v>273.55845625673999</v>
+      </c>
+      <c r="H108" s="3">
+        <v>516.28948795486997</v>
+      </c>
+      <c r="I108" s="3">
+        <v>445.16195830641698</v>
+      </c>
+      <c r="J108" s="3">
+        <v>587.41701760332398</v>
+      </c>
+      <c r="K108" s="3">
+        <v>213.97215976252801</v>
+      </c>
+      <c r="L108" s="3">
+        <v>182.43589886166899</v>
+      </c>
+      <c r="M108" s="3">
+        <v>245.52199968430099</v>
+      </c>
+      <c r="N108" s="3">
+        <v>-26.411735699278299</v>
+      </c>
+      <c r="O108" s="3">
+        <v>-72.5653433428689</v>
+      </c>
+      <c r="P108" s="3">
+        <v>19.374825077063299</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>0.254800584299126</v>
+      </c>
+      <c r="R108" s="4">
+        <v>5.4845017416482701E-12</v>
+      </c>
+      <c r="S108" s="4">
+        <v>2.6201263381153701E-14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.92078488372093004</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.89977830141443205</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.940337977655335</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0.86119186046511598</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0.83455449931890902</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0.88637573323923102</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0.93018335684062103</v>
+      </c>
+      <c r="L109" s="3">
+        <v>0.91061938678514698</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.94833688966055096</v>
+      </c>
+      <c r="N109" s="3">
+        <v>9.3123708465903694E-3</v>
+      </c>
+      <c r="O109" s="3">
+        <v>-1.80730145079484E-2</v>
+      </c>
+      <c r="P109" s="3">
+        <v>3.66295448688874E-2</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>0.50127160861279496</v>
+      </c>
+      <c r="R109" s="3">
+        <v>3.85437822943979E-4</v>
+      </c>
+      <c r="S109" s="4">
+        <v>2.44815565639822E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.41787790697674398</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.38027935604034602</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.45402296954104898</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0.51816860465116299</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0.48007597097029597</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0.55480774995993698</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0.45909732016925198</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0.42168986587204899</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.49509433723091301</v>
+      </c>
+      <c r="N110" s="3">
+        <v>4.1714501262833298E-2</v>
+      </c>
+      <c r="O110" s="3">
+        <v>-1.00738190646935E-2</v>
+      </c>
+      <c r="P110" s="3">
+        <v>9.3502821590360205E-2</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>0.11288587350616</v>
+      </c>
+      <c r="R110" s="3">
+        <v>1.80729902978793E-4</v>
+      </c>
+      <c r="S110" s="3">
+        <v>2.7067594189402099E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2.25290697674419E-2</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1.0882028686220201E-2</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.2722622476570498E-2</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0.12136627906976701</v>
+      </c>
+      <c r="I111" s="3">
+        <v>9.6283980595808005E-2</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0.14499508917163401</v>
+      </c>
+      <c r="K111" s="3">
+        <v>3.4555712270804E-2</v>
+      </c>
+      <c r="L111" s="3">
+        <v>2.0529514961582201E-2</v>
+      </c>
+      <c r="M111" s="3">
+        <v>4.7171472344482698E-2</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1.19835913668121E-2</v>
+      </c>
+      <c r="O111" s="3">
+        <v>-5.7663596392175803E-3</v>
+      </c>
+      <c r="P111" s="3">
+        <v>2.9248726083694301E-2</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>0.18253673918549601</v>
+      </c>
+      <c r="R111" s="4">
+        <v>3.9368508453208101E-13</v>
+      </c>
+      <c r="S111" s="4">
+        <v>8.8332430259185902E-10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="3">
+        <v>13.869413974716601</v>
+      </c>
+      <c r="F112" s="3">
+        <v>9.667305176747</v>
+      </c>
+      <c r="G112" s="3">
+        <v>18.018851141725399</v>
+      </c>
+      <c r="H112" s="3">
+        <v>58.475666182418898</v>
+      </c>
+      <c r="I112" s="3">
+        <v>43.973635271121204</v>
+      </c>
+      <c r="J112" s="3">
+        <v>72.992353692029795</v>
+      </c>
+      <c r="K112" s="3">
+        <v>12.4667898843588</v>
+      </c>
+      <c r="L112" s="3">
+        <v>8.9160915585395806</v>
+      </c>
+      <c r="M112" s="3">
+        <v>15.952637348025201</v>
+      </c>
+      <c r="N112" s="3">
+        <v>-1.4787966686421301</v>
+      </c>
+      <c r="O112" s="3">
+        <v>-6.9597823965251102</v>
+      </c>
+      <c r="P112" s="3">
+        <v>4.0603687956452204</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>0.58695430303936202</v>
+      </c>
+      <c r="R112" s="4">
+        <v>7.0133949758854897E-9</v>
+      </c>
+      <c r="S112" s="4">
+        <v>1.5403494035837201E-9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.24636627906976699</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.213450473320874</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.27782859644656699</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0.35683139534883701</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0.32029779517638601</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0.39191150714919598</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0.28279266572637501</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0.24893931080359599</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.31523558341361102</v>
+      </c>
+      <c r="N113" s="3">
+        <v>3.7427838094925697E-2</v>
+      </c>
+      <c r="O113" s="3">
+        <v>-9.1132817660166503E-3</v>
+      </c>
+      <c r="P113" s="3">
+        <v>8.3944652276551401E-2</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>0.11465857167792901</v>
+      </c>
+      <c r="R113" s="4">
+        <v>6.8997381286184404E-6</v>
+      </c>
+      <c r="S113" s="3">
+        <v>2.9394006824330402E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.83370970525145305</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.79266069493177105</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.87475365786384496</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0.65256713012904799</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0.60299743725279997</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0.70206582264540596</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0.74275826727143901</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0.70158072644267899</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.78441188866170297</v>
+      </c>
+      <c r="N114" s="3">
+        <v>-9.2120757847107798E-2</v>
+      </c>
+      <c r="O114" s="3">
+        <v>-0.15008981652964001</v>
+      </c>
+      <c r="P114" s="3">
+        <v>-3.4095936688060297E-2</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>1.90702419105951E-3</v>
+      </c>
+      <c r="R114" s="4">
+        <v>3.4099917334273801E-8</v>
+      </c>
+      <c r="S114" s="3">
+        <v>6.1841988462296698E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.77646105886531103</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.73871592398664399</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.81414228938472699</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0.950520906539845</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0.91933308163087701</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0.98121032284783305</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0.81922153400389197</v>
+      </c>
+      <c r="L115" s="3">
+        <v>0.78514393531806503</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.85342460795458597</v>
+      </c>
+      <c r="N115" s="3">
+        <v>4.2723546647482097E-2</v>
+      </c>
+      <c r="O115" s="3">
+        <v>-8.2148849860386904E-3</v>
+      </c>
+      <c r="P115" s="3">
+        <v>9.3680436818532498E-2</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>0.100110970035398</v>
+      </c>
+      <c r="R115" s="4">
+        <v>2.6754154447416998E-12</v>
+      </c>
+      <c r="S115" s="4">
+        <v>2.3292299644595001E-8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="3">
+        <v>-0.47917912899229498</v>
+      </c>
+      <c r="F116" s="3">
+        <v>-0.54684236979246403</v>
+      </c>
+      <c r="G116" s="3">
+        <v>-0.410747714568101</v>
+      </c>
+      <c r="H116" s="3">
+        <v>-0.36148095143644898</v>
+      </c>
+      <c r="I116" s="3">
+        <v>-0.43854389652290798</v>
+      </c>
+      <c r="J116" s="3">
+        <v>-0.28415909903546599</v>
+      </c>
+      <c r="K116" s="3">
+        <v>-0.56186951428509901</v>
+      </c>
+      <c r="L116" s="3">
+        <v>-0.62345080669474695</v>
+      </c>
+      <c r="M116" s="3">
+        <v>-0.49964300566956399</v>
+      </c>
+      <c r="N116" s="3">
+        <v>-8.4138142762668705E-2</v>
+      </c>
+      <c r="O116" s="3">
+        <v>-0.17623339530568799</v>
+      </c>
+      <c r="P116" s="3">
+        <v>8.1146008527116491E-3</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>7.3805531362700502E-2</v>
+      </c>
+      <c r="R116" s="3">
+        <v>2.4974530566346201E-2</v>
+      </c>
+      <c r="S116" s="4">
+        <v>7.20650335450657E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.179505813953488</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.150126863836647</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.20743127569823699</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0.18531976744185999</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.155581897917699</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0.21360414859392901</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0.15162200282087401</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0.124548895222686</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0.17728467318352001</v>
+      </c>
+      <c r="N117" s="3">
+        <v>-2.9315773936431901E-2</v>
+      </c>
+      <c r="O117" s="3">
+        <v>-6.8367841977916302E-2</v>
+      </c>
+      <c r="P117" s="3">
+        <v>9.8717137792423103E-3</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>0.14305231731236601</v>
+      </c>
+      <c r="R117" s="3">
+        <v>0.77988451019486604</v>
+      </c>
+      <c r="S117" s="3">
+        <v>9.2038803647036496E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.18677325581395299</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.15694736301092799</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.21514566024488599</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0.26380813953488402</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0.230156488770899</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0.29600630192677502</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0.19957686882933701</v>
+      </c>
+      <c r="L118" s="3">
+        <v>0.16947018653590701</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0.22827311388722399</v>
+      </c>
+      <c r="N118" s="3">
+        <v>1.3934217863351601E-2</v>
+      </c>
+      <c r="O118" s="3">
+        <v>-2.7976016632135899E-2</v>
+      </c>
+      <c r="P118" s="3">
+        <v>5.5355071555186701E-2</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>0.51531870472852304</v>
+      </c>
+      <c r="R118" s="3">
+        <v>5.9001614419207404E-4</v>
+      </c>
+      <c r="S118" s="3">
+        <v>4.34420885092557E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.387354651162791</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.35021307351980002</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.423042740433688</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0.60973837209302295</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.57252242002000797</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0.64550083579394502</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0.47884344146685498</v>
+      </c>
+      <c r="L119" s="3">
+        <v>0.44134346593176599</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0.51493297976639996</v>
+      </c>
+      <c r="N119" s="3">
+        <v>9.1122855643388997E-2</v>
+      </c>
+      <c r="O119" s="3">
+        <v>3.9209170262071102E-2</v>
+      </c>
+      <c r="P119" s="3">
+        <v>0.14300896406497601</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>5.6684833067613405E-4</v>
+      </c>
+      <c r="R119" s="3">
+        <v>0</v>
+      </c>
+      <c r="S119" s="4">
+        <v>7.3883998452650701E-7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.41351744186046502</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.37597516090717797</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.44960623444165898</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0.173691860465116</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0.14468306547013099</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0.20124716708800799</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0.37235543018335698</v>
+      </c>
+      <c r="L120" s="3">
+        <v>0.33674582193362501</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.40796503843308901</v>
+      </c>
+      <c r="N120" s="3">
+        <v>-4.1953332567979798E-2</v>
+      </c>
+      <c r="O120" s="3">
+        <v>-9.3272406599325106E-2</v>
+      </c>
+      <c r="P120" s="3">
+        <v>9.3226903268155796E-3</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>0.108908290306165</v>
+      </c>
+      <c r="R120" s="3">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.195494186046512</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.165154021885276</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.22438086183565401</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0.21438953488372101</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0.183012218665044</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0.24431336273030499</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0.145980253878702</v>
+      </c>
+      <c r="L121" s="3">
+        <v>0.119318892662619</v>
+      </c>
+      <c r="M121" s="3">
+        <v>0.171231177859242</v>
+      </c>
+      <c r="N121" s="3">
+        <v>-4.9406304326434197E-2</v>
+      </c>
+      <c r="O121" s="3">
+        <v>-8.8695535594873795E-2</v>
+      </c>
+      <c r="P121" s="3">
+        <v>-9.9380372162501292E-3</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>1.44659636668646E-2</v>
+      </c>
+      <c r="R121" s="3">
+        <v>0.38486463869941301</v>
+      </c>
+      <c r="S121" s="3">
+        <v>8.4282269004809496E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="3">
+        <v>7.0224719101123604E-4</v>
+      </c>
+      <c r="F122" s="3">
+        <v>-1.3482640232304101E-3</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>5.8286516853932602E-2</v>
+      </c>
+      <c r="I122" s="3">
+        <v>4.0461008306779303E-2</v>
+      </c>
+      <c r="J122" s="3">
+        <v>7.4707531019063397E-2</v>
+      </c>
+      <c r="K122" s="3">
+        <v>2.52043596730245E-2</v>
+      </c>
+      <c r="L122" s="3">
+        <v>1.33263894658983E-2</v>
+      </c>
+      <c r="M122" s="3">
+        <v>3.5719932059987303E-2</v>
+      </c>
+      <c r="N122" s="3">
+        <v>2.37788170100726E-2</v>
+      </c>
+      <c r="O122" s="3">
+        <v>1.15884727001529E-2</v>
+      </c>
+      <c r="P122" s="3">
+        <v>3.5212540283684403E-2</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>6.6594319240425199E-5</v>
+      </c>
+      <c r="R122" s="4">
+        <v>4.51123582934088E-11</v>
+      </c>
+      <c r="S122" s="3">
+        <v>1.52804517946747E-3</v>
+      </c>
+      <c r="T122" s="3"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" s="3">
+        <v>4.61412888802483E-2</v>
+      </c>
+      <c r="F123" s="3">
+        <v>-1.6050732307220102E-2</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.108339878425444</v>
+      </c>
+      <c r="H123" s="3">
+        <v>6.7982898095108907E-2</v>
+      </c>
+      <c r="I123" s="3">
+        <v>-1.6742546550862301E-2</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0.15357133670838399</v>
+      </c>
+      <c r="K123" s="3">
+        <v>5.7723774290875203E-3</v>
+      </c>
+      <c r="L123" s="3">
+        <v>-6.3993697916814293E-2</v>
+      </c>
+      <c r="M123" s="3">
+        <v>7.5557213056293093E-2</v>
+      </c>
+      <c r="N123" s="3">
+        <v>-4.1032551335739499E-2</v>
+      </c>
+      <c r="O123" s="3">
+        <v>-0.13472102649491</v>
+      </c>
+      <c r="P123" s="3">
+        <v>5.3169522569281702E-2</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>0.39666745379976598</v>
+      </c>
+      <c r="R123" s="3">
+        <v>0.68476798441231701</v>
+      </c>
+      <c r="S123" s="3">
+        <v>0.26805671111650298</v>
+      </c>
+      <c r="T123" s="3"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124" s="3">
+        <v>10.9199555106827</v>
+      </c>
+      <c r="F124" s="3">
+        <v>8.7038677935975102</v>
+      </c>
+      <c r="G124" s="3">
+        <v>12.9532826579272</v>
+      </c>
+      <c r="H124" s="3">
+        <v>50.253183377597999</v>
+      </c>
+      <c r="I124" s="3">
+        <v>38.052571161631597</v>
+      </c>
+      <c r="J124" s="3">
+        <v>62.547716187293098</v>
+      </c>
+      <c r="K124" s="3">
+        <v>19.870838136699</v>
+      </c>
+      <c r="L124" s="3">
+        <v>14.997940353443701</v>
+      </c>
+      <c r="M124" s="3">
+        <v>24.83978182661</v>
+      </c>
+      <c r="N124" s="3">
+        <v>8.9291551702752194</v>
+      </c>
+      <c r="O124" s="3">
+        <v>3.48014372273845</v>
+      </c>
+      <c r="P124" s="3">
+        <v>14.3614166434566</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>1.0690148465574299E-3</v>
+      </c>
+      <c r="R124" s="4">
+        <v>5.5774473928238401E-10</v>
+      </c>
+      <c r="S124" s="4">
+        <v>6.4341537060474996E-6</v>
+      </c>
+      <c r="T124" s="3"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.14255617977528101</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.1162082307307</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.167499634437839</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0.26615168539325801</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0.232991939863504</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0.29790693654099099</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0.17915531335149901</v>
+      </c>
+      <c r="L125" s="3">
+        <v>0.150754042843179</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0.206194186039655</v>
+      </c>
+      <c r="N125" s="3">
+        <v>3.8024676239169698E-2</v>
+      </c>
+      <c r="O125" s="3">
+        <v>2.8837014547644001E-4</v>
+      </c>
+      <c r="P125" s="3">
+        <v>7.5716296917571896E-2</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>4.80096647350872E-2</v>
+      </c>
+      <c r="R125" s="4">
+        <v>4.7382473500334804E-9</v>
+      </c>
+      <c r="S125" s="4">
+        <v>6.4746602358889405E-5</v>
+      </c>
+      <c r="T125" s="3"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126" s="3">
+        <v>8.8279494382022499</v>
+      </c>
+      <c r="F126" s="3">
+        <v>8.5736193339300293</v>
+      </c>
+      <c r="G126" s="3">
+        <v>9.0817086809796805</v>
+      </c>
+      <c r="H126" s="3">
+        <v>9.3068820224719104</v>
+      </c>
+      <c r="I126" s="3">
+        <v>8.9195067229720006</v>
+      </c>
+      <c r="J126" s="3">
+        <v>9.6964929354206504</v>
+      </c>
+      <c r="K126" s="3">
+        <v>8.9516348773841994</v>
+      </c>
+      <c r="L126" s="3">
+        <v>8.6450321531705807</v>
+      </c>
+      <c r="M126" s="3">
+        <v>9.2618016350750807</v>
+      </c>
+      <c r="N126" s="3">
+        <v>0.13032330159507699</v>
+      </c>
+      <c r="O126" s="3">
+        <v>-0.26889779406028402</v>
+      </c>
+      <c r="P126" s="3">
+        <v>0.52889546293180201</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>0.52253118732203097</v>
+      </c>
+      <c r="R126" s="3">
+        <v>4.31473332411332E-2</v>
+      </c>
+      <c r="S126" s="3">
+        <v>0.160388885080228</v>
+      </c>
+      <c r="T126" s="3"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" s="3">
+        <v>36.436797752808999</v>
+      </c>
+      <c r="F127" s="3">
+        <v>35.704651257215602</v>
+      </c>
+      <c r="G127" s="3">
+        <v>37.185274950436799</v>
+      </c>
+      <c r="H127" s="3">
+        <v>38.3539325842697</v>
+      </c>
+      <c r="I127" s="3">
+        <v>37.317355363314398</v>
+      </c>
+      <c r="J127" s="3">
+        <v>39.385850677922903</v>
+      </c>
+      <c r="K127" s="3">
+        <v>36.054495912806502</v>
+      </c>
+      <c r="L127" s="3">
+        <v>35.252934833905101</v>
+      </c>
+      <c r="M127" s="3">
+        <v>36.849194012837202</v>
+      </c>
+      <c r="N127" s="3">
+        <v>-0.39123013807672202</v>
+      </c>
+      <c r="O127" s="3">
+        <v>-1.48097197562661</v>
+      </c>
+      <c r="P127" s="3">
+        <v>0.69315940682468702</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>0.479640724864486</v>
+      </c>
+      <c r="R127" s="3">
+        <v>3.1337135995845901E-3</v>
+      </c>
+      <c r="S127" s="3">
+        <v>5.6087530207471503E-4</v>
+      </c>
+      <c r="T127" s="3"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.150983146067416</v>
+      </c>
+      <c r="F128" s="3">
+        <v>9.1016438033633407E-2</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.211887768513075</v>
+      </c>
+      <c r="H128" s="3">
+        <v>1.0007022471910101</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0.82314332486432196</v>
+      </c>
+      <c r="J128" s="3">
+        <v>1.1779892459499499</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0.39100817438692098</v>
+      </c>
+      <c r="L128" s="3">
+        <v>0.28763216186736201</v>
+      </c>
+      <c r="M128" s="3">
+        <v>0.49592150587330103</v>
+      </c>
+      <c r="N128" s="3">
+        <v>0.236950065823715</v>
+      </c>
+      <c r="O128" s="3">
+        <v>0.116598425128876</v>
+      </c>
+      <c r="P128" s="3">
+        <v>0.35768597191735602</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>9.2369241438957798E-5</v>
+      </c>
+      <c r="R128" s="3">
+        <v>0</v>
+      </c>
+      <c r="S128" s="4">
+        <v>6.3007514761181896E-9</v>
+      </c>
+      <c r="T128" s="3"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.95435393258427004</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.93819824596907997</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.96910512481743705</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0.78300561797752799</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0.75196957604685399</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0.81263716552618004</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0.89305177111716605</v>
+      </c>
+      <c r="L129" s="3">
+        <v>0.86993515038279701</v>
+      </c>
+      <c r="M129" s="3">
+        <v>0.91480599403137197</v>
+      </c>
+      <c r="N129" s="3">
+        <v>-6.2348835073324602E-2</v>
+      </c>
+      <c r="O129" s="3">
+        <v>-8.9251358258923705E-2</v>
+      </c>
+      <c r="P129" s="3">
+        <v>-3.52461765569494E-2</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>5.8867454078340903E-6</v>
+      </c>
+      <c r="R129" s="3">
+        <v>0</v>
+      </c>
+      <c r="S129" s="4">
+        <v>1.08539113252704E-8</v>
+      </c>
+      <c r="T129" s="3"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>-1.3482640232304101E-3</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>3.5814606741573003E-2</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2.1582861952482098E-2</v>
+      </c>
+      <c r="J130" s="3">
+        <v>4.8641857148641499E-2</v>
+      </c>
+      <c r="K130" s="3">
+        <v>2.0435967302452301E-3</v>
+      </c>
+      <c r="L130" s="3">
+        <v>-1.30785283997282E-3</v>
+      </c>
+      <c r="M130" s="3">
+        <v>4.0326484802997997E-3</v>
+      </c>
+      <c r="N130" s="3">
+        <v>2.0435967302452301E-3</v>
+      </c>
+      <c r="O130" s="3">
+        <v>-1.30785283997282E-3</v>
+      </c>
+      <c r="P130" s="3">
+        <v>5.9913505050165298E-3</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>0.15701595395114301</v>
+      </c>
+      <c r="R130" s="4">
+        <v>2.19537007239978E-7</v>
+      </c>
+      <c r="S130" s="4">
+        <v>1.5884727671000599E-6</v>
+      </c>
+      <c r="T130" s="3"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" s="3">
+        <v>4.4241573033707897E-2</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2.8539448771354E-2</v>
+      </c>
+      <c r="G131" s="3">
+        <v>5.8539202914039197E-2</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0.160814606741573</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0.133157547081871</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0.18706717201925199</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0.10149863760218</v>
+      </c>
+      <c r="L131" s="3">
+        <v>7.9020883003520795E-2</v>
+      </c>
+      <c r="M131" s="3">
+        <v>0.122613994380675</v>
+      </c>
+      <c r="N131" s="3">
+        <v>5.8408979579340499E-2</v>
+      </c>
+      <c r="O131" s="3">
+        <v>3.12485199024128E-2</v>
+      </c>
+      <c r="P131" s="3">
+        <v>8.4684939696377401E-2</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>1.8265304639476499E-5</v>
+      </c>
+      <c r="R131" s="4">
+        <v>1.2922996006636799E-13</v>
+      </c>
+      <c r="S131" s="3">
+        <v>7.9707220467528596E-4</v>
+      </c>
+      <c r="T131" s="3"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" s="3">
+        <v>9.1742037408304999E-3</v>
+      </c>
+      <c r="F132" s="3">
+        <v>-5.49338837172254E-2</v>
+      </c>
+      <c r="G132" s="3">
+        <v>7.3730003740327302E-2</v>
+      </c>
+      <c r="H132" s="3">
+        <v>-4.16312177617379E-2</v>
+      </c>
+      <c r="I132" s="3">
+        <v>-0.122621662538812</v>
+      </c>
+      <c r="J132" s="3">
+        <v>3.8623614186842299E-2</v>
+      </c>
+      <c r="K132" s="3">
+        <v>2.6394835276762701E-2</v>
+      </c>
+      <c r="L132" s="3">
+        <v>-4.4505278332020899E-2</v>
+      </c>
+      <c r="M132" s="3">
+        <v>9.7534092181912099E-2</v>
+      </c>
+      <c r="N132" s="3">
+        <v>1.8596461902436801E-2</v>
+      </c>
+      <c r="O132" s="3">
+        <v>-7.7087443772645495E-2</v>
+      </c>
+      <c r="P132" s="3">
+        <v>0.11393378256692201</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>0.69981503785657795</v>
+      </c>
+      <c r="R132" s="3">
+        <v>0.33432623104034498</v>
+      </c>
+      <c r="S132" s="3">
+        <v>0.21462151705827401</v>
+      </c>
+      <c r="T132" s="3"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133" s="3">
+        <v>4.9157303370786498E-3</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>8.9746899107661596E-3</v>
+      </c>
+      <c r="H133" s="3">
+        <v>2.8792134831460699E-2</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1.5944780731926199E-2</v>
+      </c>
+      <c r="J133" s="3">
+        <v>4.0234994548972697E-2</v>
+      </c>
+      <c r="K133" s="3">
+        <v>4.0190735694822899E-2</v>
+      </c>
+      <c r="L133" s="3">
+        <v>2.5407118197806999E-2</v>
+      </c>
+      <c r="M133" s="3">
+        <v>5.3611955371675298E-2</v>
+      </c>
+      <c r="N133" s="3">
+        <v>3.5232908795885302E-2</v>
+      </c>
+      <c r="O133" s="3">
+        <v>1.9822915248273901E-2</v>
+      </c>
+      <c r="P133" s="3">
+        <v>5.0180518689770401E-2</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>5.7260134143612998E-6</v>
+      </c>
+      <c r="R133" s="3">
+        <v>3.0104295238841901E-4</v>
+      </c>
+      <c r="S133" s="3">
+        <v>0.22997965248737101</v>
+      </c>
+      <c r="T133" s="3"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134" s="3">
+        <v>14.328372442412499</v>
+      </c>
+      <c r="F134" s="3">
+        <v>13.6639599001245</v>
+      </c>
+      <c r="G134" s="3">
+        <v>14.9899737598658</v>
+      </c>
+      <c r="H134" s="3">
+        <v>17.884499560503201</v>
+      </c>
+      <c r="I134" s="3">
+        <v>17.0785343376483</v>
+      </c>
+      <c r="J134" s="3">
+        <v>18.692839751503801</v>
+      </c>
+      <c r="K134" s="3">
+        <v>17.053294460627399</v>
+      </c>
+      <c r="L134" s="3">
+        <v>16.3059281570354</v>
+      </c>
+      <c r="M134" s="3">
+        <v>17.802048549206201</v>
+      </c>
+      <c r="N134" s="3">
+        <v>2.7223729236340599</v>
+      </c>
+      <c r="O134" s="3">
+        <v>1.71822771125853</v>
+      </c>
+      <c r="P134" s="3">
+        <v>3.7229010805814702</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>9.6039354595446101E-8</v>
+      </c>
+      <c r="R134" s="4">
+        <v>2.5101476452960001E-11</v>
+      </c>
+      <c r="S134" s="3">
+        <v>0.138769197631052</v>
+      </c>
+      <c r="T134" s="3"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E135" s="3">
+        <v>50.4887640449438</v>
+      </c>
+      <c r="F135" s="3">
+        <v>47.444538276183501</v>
+      </c>
+      <c r="G135" s="3">
+        <v>53.540168929207297</v>
+      </c>
+      <c r="H135" s="3">
+        <v>66.959269662921301</v>
+      </c>
+      <c r="I135" s="3">
+        <v>62.739070902723597</v>
+      </c>
+      <c r="J135" s="3">
+        <v>71.185209351637397</v>
+      </c>
+      <c r="K135" s="3">
+        <v>58.948910081743897</v>
+      </c>
+      <c r="L135" s="3">
+        <v>55.29940400569</v>
+      </c>
+      <c r="M135" s="3">
+        <v>62.604330041307698</v>
+      </c>
+      <c r="N135" s="3">
+        <v>8.4576891283715607</v>
+      </c>
+      <c r="O135" s="3">
+        <v>3.74389597804872</v>
+      </c>
+      <c r="P135" s="3">
+        <v>13.200923230652201</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>4.5570655375066398E-4</v>
+      </c>
+      <c r="R135" s="4">
+        <v>5.6985216545513099E-10</v>
+      </c>
+      <c r="S135" s="3">
+        <v>4.9243492750108402E-3</v>
+      </c>
+      <c r="T135" s="3"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136" s="3">
+        <v>4.4365021128081897E-2</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3.7048306914818599E-2</v>
+      </c>
+      <c r="G136" s="3">
+        <v>5.1688768769960203E-2</v>
+      </c>
+      <c r="H136" s="3">
+        <v>9.7474288371302606E-2</v>
+      </c>
+      <c r="I136" s="3">
+        <v>8.3533156380315096E-2</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0.111319218205247</v>
+      </c>
+      <c r="K136" s="3">
+        <v>4.8561104892420603E-2</v>
+      </c>
+      <c r="L136" s="3">
+        <v>4.0236970116900701E-2</v>
+      </c>
+      <c r="M136" s="3">
+        <v>5.6828309775724797E-2</v>
+      </c>
+      <c r="N136" s="3">
+        <v>3.8229554754873299E-3</v>
+      </c>
+      <c r="O136" s="3">
+        <v>-7.2679315054617003E-3</v>
+      </c>
+      <c r="P136" s="3">
+        <v>1.5040017012004201E-2</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>0.49973876877810502</v>
+      </c>
+      <c r="R136" s="4">
+        <v>3.3866909276980602E-11</v>
+      </c>
+      <c r="S136" s="4">
+        <v>3.1280968926239401E-9</v>
+      </c>
+      <c r="T136" s="3"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" s="3">
+        <v>7.4153581616505398E-2</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1.0923840254581299E-2</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.13779694132321399</v>
+      </c>
+      <c r="H137" s="3">
+        <v>-0.12620911578316901</v>
+      </c>
+      <c r="I137" s="3">
+        <v>-0.21064896202969299</v>
+      </c>
+      <c r="J137" s="3">
+        <v>-4.1730432451353799E-2</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1.8423792080730399E-2</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-5.06298135963913E-2</v>
+      </c>
+      <c r="M137" s="3">
+        <v>8.8096779290109395E-2</v>
+      </c>
+      <c r="N137" s="3">
+        <v>-5.6050395489499701E-2</v>
+      </c>
+      <c r="O137" s="3">
+        <v>-0.149302953632026</v>
+      </c>
+      <c r="P137" s="3">
+        <v>3.7317426378349498E-2</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>0.23542461642295201</v>
+      </c>
+      <c r="R137" s="3">
+        <v>2.0095003671749499E-4</v>
+      </c>
+      <c r="S137" s="3">
+        <v>9.4921234025440206E-3</v>
+      </c>
+      <c r="T137" s="3"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E138" s="3">
+        <v>214.82772935638499</v>
+      </c>
+      <c r="F138" s="3">
+        <v>187.63721473895899</v>
+      </c>
+      <c r="G138" s="3">
+        <v>242.295320654964</v>
+      </c>
+      <c r="H138" s="3">
+        <v>437.06684976854899</v>
+      </c>
+      <c r="I138" s="3">
+        <v>375.83676300231099</v>
+      </c>
+      <c r="J138" s="3">
+        <v>497.93438312607401</v>
+      </c>
+      <c r="K138" s="3">
+        <v>287.75281051378101</v>
+      </c>
+      <c r="L138" s="3">
+        <v>242.11679307826901</v>
+      </c>
+      <c r="M138" s="3">
+        <v>333.87825179553198</v>
+      </c>
+      <c r="N138" s="3">
+        <v>72.621448086847707</v>
+      </c>
+      <c r="O138" s="3">
+        <v>18.9737585475985</v>
+      </c>
+      <c r="P138" s="3">
+        <v>126.38833731859199</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>7.8481610067935702E-3</v>
+      </c>
+      <c r="R138" s="4">
+        <v>7.3992145743773095E-11</v>
+      </c>
+      <c r="S138" s="3">
+        <v>1.2700312640801E-4</v>
+      </c>
+      <c r="T138" s="3"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.93188202247190999</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0.91257227212871805</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.94978727843307997</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0.87148876404494402</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0.84613049221089398</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0.895442541496971</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0.89577656675749295</v>
+      </c>
+      <c r="L139" s="3">
+        <v>0.87291196882337696</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0.91727876687144605</v>
+      </c>
+      <c r="N139" s="3">
+        <v>-3.6105455714416902E-2</v>
+      </c>
+      <c r="O139" s="3">
+        <v>-6.4523264466497796E-2</v>
+      </c>
+      <c r="P139" s="3">
+        <v>-7.1647957901394702E-3</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>1.44472862419828E-2</v>
+      </c>
+      <c r="R139" s="3">
+        <v>1.2706598370937301E-4</v>
+      </c>
+      <c r="S139" s="3">
+        <v>0.15120089279694801</v>
+      </c>
+      <c r="T139" s="3"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.39396067415730301</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.357353488555814</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.42916336537677002</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0.53019662921348298</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0.49280618449270402</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0.56618257955224005</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0.45299727520436001</v>
+      </c>
+      <c r="L140" s="3">
+        <v>0.41628459538505103</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0.48834755720350498</v>
+      </c>
+      <c r="N140" s="3">
+        <v>5.88050699568319E-2</v>
+      </c>
+      <c r="O140" s="3">
+        <v>7.8099350833366497E-3</v>
+      </c>
+      <c r="P140" s="3">
+        <v>0.109800204830327</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>2.2397231166951002E-2</v>
+      </c>
+      <c r="R140" s="4">
+        <v>1.9751617097440999E-7</v>
+      </c>
+      <c r="S140" s="3">
+        <v>3.2558372204114501E-3</v>
+      </c>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2.0365168539325799E-2</v>
+      </c>
+      <c r="F141" s="3">
+        <v>9.4576389676239506E-3</v>
+      </c>
+      <c r="G141" s="3">
+        <v>2.98682037290053E-2</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0.114466292134831</v>
+      </c>
+      <c r="I141" s="3">
+        <v>9.0424602010319793E-2</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0.13710348787732099</v>
+      </c>
+      <c r="K141" s="3">
+        <v>4.2915531335149901E-2</v>
+      </c>
+      <c r="L141" s="3">
+        <v>2.7674427026284601E-2</v>
+      </c>
+      <c r="M141" s="3">
+        <v>5.6794237823851602E-2</v>
+      </c>
+      <c r="N141" s="3">
+        <v>2.2634555919541999E-2</v>
+      </c>
+      <c r="O141" s="3">
+        <v>4.7312438565591704E-3</v>
+      </c>
+      <c r="P141" s="3">
+        <v>4.1026653105625102E-2</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>1.2842723498042699E-2</v>
+      </c>
+      <c r="R141" s="4">
+        <v>4.4697578971408802E-13</v>
+      </c>
+      <c r="S141" s="4">
+        <v>3.4320202058069098E-7</v>
+      </c>
+      <c r="T141" s="3"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E142" s="3">
+        <v>11.449073044353</v>
+      </c>
+      <c r="F142" s="3">
+        <v>7.8005950423331099</v>
+      </c>
+      <c r="G142" s="3">
+        <v>15.0788799374641</v>
+      </c>
+      <c r="H142" s="3">
+        <v>53.797748692103497</v>
+      </c>
+      <c r="I142" s="3">
+        <v>41.120213975446397</v>
+      </c>
+      <c r="J142" s="3">
+        <v>66.803070873486604</v>
+      </c>
+      <c r="K142" s="3">
+        <v>19.695031659033098</v>
+      </c>
+      <c r="L142" s="3">
+        <v>13.7582027883763</v>
+      </c>
+      <c r="M142" s="3">
+        <v>25.747263200368899</v>
+      </c>
+      <c r="N142" s="3">
+        <v>8.3806996877838298</v>
+      </c>
+      <c r="O142" s="3">
+        <v>1.4161178632889</v>
+      </c>
+      <c r="P142" s="3">
+        <v>15.3931976460453</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>1.791389993343E-2</v>
+      </c>
+      <c r="R142" s="4">
+        <v>5.0089310477119398E-10</v>
+      </c>
+      <c r="S142" s="4">
+        <v>2.3988899948701501E-6</v>
+      </c>
+      <c r="T142" s="3"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.25210674157303398</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0.219516778118898</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0.28329221064514698</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0.37991573033707898</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0.34354979005479402</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0.41487717623734099</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0.28542234332425098</v>
+      </c>
+      <c r="L143" s="3">
+        <v>0.25207086577288801</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0.31741142305545</v>
+      </c>
+      <c r="N143" s="3">
+        <v>3.1847962526406003E-2</v>
+      </c>
+      <c r="O143" s="3">
+        <v>-1.38909529419655E-2</v>
+      </c>
+      <c r="P143" s="3">
+        <v>7.75932169706815E-2</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>0.172049968899608</v>
+      </c>
+      <c r="R143" s="4">
+        <v>1.6386930989931201E-7</v>
+      </c>
+      <c r="S143" s="3">
+        <v>1.28507639256759E-4</v>
+      </c>
+      <c r="T143" s="3"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.83636772248035895</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0.79713421923981298</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0.87541972659430201</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0.63152028473088895</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0.58549687608518797</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0.67814004516816795</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0.77681234455223303</v>
+      </c>
+      <c r="L144" s="3">
+        <v>0.73208807264116005</v>
+      </c>
+      <c r="M144" s="3">
+        <v>0.82139379912000599</v>
+      </c>
+      <c r="N144" s="3">
+        <v>-5.89322657474994E-2</v>
+      </c>
+      <c r="O144" s="3">
+        <v>-0.118463719676447</v>
+      </c>
+      <c r="P144" s="3">
+        <v>4.9011516556897396E-4</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>5.1945081244527999E-2</v>
+      </c>
+      <c r="R144" s="4">
+        <v>3.5801805964297299E-11</v>
+      </c>
+      <c r="S144" s="4">
+        <v>9.5955445846840297E-6</v>
+      </c>
+      <c r="T144" s="3"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.72260594646478404</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0.687501935440752</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0.75805962422249495</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0.93948011344633597</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0.90813248750588005</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0.97101979794333404</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0.87910716261759703</v>
+      </c>
+      <c r="L145" s="3">
+        <v>0.84542621075850199</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0.91246590593462995</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0.156373061815715</v>
+      </c>
+      <c r="O145" s="3">
+        <v>0.107916499626987</v>
+      </c>
+      <c r="P145" s="3">
+        <v>0.20522628266771201</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>3.1165695884746701E-10</v>
+      </c>
+      <c r="R145" s="3">
+        <v>0</v>
+      </c>
+      <c r="S145" s="3">
+        <v>1.00334416297321E-2</v>
+      </c>
+      <c r="T145" s="3"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E146" s="3">
+        <v>-0.46310026376126201</v>
+      </c>
+      <c r="F146" s="3">
+        <v>-0.52653875008296502</v>
+      </c>
+      <c r="G146" s="3">
+        <v>-0.40003787292366499</v>
+      </c>
+      <c r="H146" s="3">
+        <v>-0.460584944836126</v>
+      </c>
+      <c r="I146" s="3">
+        <v>-0.52947180281974005</v>
+      </c>
+      <c r="J146" s="3">
+        <v>-0.391669775782017</v>
+      </c>
+      <c r="K146" s="3">
+        <v>-0.40343731980928199</v>
+      </c>
+      <c r="L146" s="3">
+        <v>-0.47189591100078299</v>
+      </c>
+      <c r="M146" s="3">
+        <v>-0.33544937851365902</v>
+      </c>
+      <c r="N146" s="3">
+        <v>5.9931584419910401E-2</v>
+      </c>
+      <c r="O146" s="3">
+        <v>-3.29775905327769E-2</v>
+      </c>
+      <c r="P146" s="3">
+        <v>0.153649611029474</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>0.205601060329551</v>
+      </c>
+      <c r="R146" s="3">
+        <v>0.95796272663781101</v>
+      </c>
+      <c r="S146" s="3">
+        <v>0.24801679895436199</v>
+      </c>
+      <c r="T146" s="3"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0.106039325842697</v>
+      </c>
+      <c r="F147" s="3">
+        <v>8.2772166614786299E-2</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0.12790199068858399</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0.22963483146067401</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0.19805002586348799</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0.259815142675838</v>
+      </c>
+      <c r="K147" s="3">
+        <v>0.177792915531335</v>
+      </c>
+      <c r="L147" s="3">
+        <v>0.14947476175796801</v>
+      </c>
+      <c r="M147" s="3">
+        <v>0.20474867148453901</v>
+      </c>
+      <c r="N147" s="3">
+        <v>7.1837782812356504E-2</v>
+      </c>
+      <c r="O147" s="3">
+        <v>3.628708985075E-2</v>
+      </c>
+      <c r="P147" s="3">
+        <v>0.10755930008136901</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>8.0523141197838199E-5</v>
+      </c>
+      <c r="R147" s="4">
+        <v>2.3951374217290301E-10</v>
+      </c>
+      <c r="S147" s="3">
+        <v>1.4214488693646599E-2</v>
+      </c>
+      <c r="T147" s="3"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.163623595505618</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0.13577662486005401</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0.19006607176915899</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0.27879213483146098</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0.24515566237815001</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0.31102411290274901</v>
+      </c>
+      <c r="K148" s="3">
+        <v>0.226839237057221</v>
+      </c>
+      <c r="L148" s="3">
+        <v>0.19587299089132201</v>
+      </c>
+      <c r="M148" s="3">
+        <v>0.25644308540295602</v>
+      </c>
+      <c r="N148" s="3">
+        <v>6.4535942809907196E-2</v>
+      </c>
+      <c r="O148" s="3">
+        <v>2.38815138562984E-2</v>
+      </c>
+      <c r="P148" s="3">
+        <v>0.10503616847726401</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>1.85973129768799E-3</v>
+      </c>
+      <c r="R148" s="4">
+        <v>1.2297158091811901E-7</v>
+      </c>
+      <c r="S148" s="3">
+        <v>2.2852873787686301E-2</v>
+      </c>
+      <c r="T148" s="3"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B149" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0.35182584269662898</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0.31603836863561902</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0.38620882237561699</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0.60463483146067398</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0.56798314845902498</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0.63988202008030004</v>
+      </c>
+      <c r="K149" s="3">
+        <v>0.48569482288828297</v>
+      </c>
+      <c r="L149" s="3">
+        <v>0.44883342569201501</v>
+      </c>
+      <c r="M149" s="3">
+        <v>0.52119382226438904</v>
+      </c>
+      <c r="N149" s="3">
+        <v>0.13533661941646499</v>
+      </c>
+      <c r="O149" s="3">
+        <v>8.4985903111219299E-2</v>
+      </c>
+      <c r="P149" s="3">
+        <v>0.18568733572171101</v>
+      </c>
+      <c r="Q149" s="4">
+        <v>1.3693014566092101E-7</v>
+      </c>
+      <c r="R149" s="3">
+        <v>0</v>
+      </c>
+      <c r="S149" s="4">
+        <v>4.86088814866115E-6</v>
+      </c>
+      <c r="T149" s="3"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.48103932584269699</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0.443613312598374</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0.51706084470499603</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0.20856741573033699</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0.17803857151233399</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0.23769176556631699</v>
+      </c>
+      <c r="K150" s="3">
+        <v>0.27997275204359701</v>
+      </c>
+      <c r="L150" s="3">
+        <v>0.24681239151373099</v>
+      </c>
+      <c r="M150" s="3">
+        <v>0.31177071475329898</v>
+      </c>
+      <c r="N150" s="3">
+        <v>-0.20266050270948799</v>
+      </c>
+      <c r="O150" s="3">
+        <v>-0.25185860308400299</v>
+      </c>
+      <c r="P150" s="3">
+        <v>-0.15346240233497199</v>
+      </c>
+      <c r="Q150" s="4">
+        <v>6.0130433809979701E-16</v>
+      </c>
+      <c r="R150" s="3">
+        <v>0</v>
+      </c>
+      <c r="S150" s="3">
+        <v>1.50454397622091E-3</v>
+      </c>
+      <c r="T150" s="3"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.16502808988764001</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0.137087247171224</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0.19156443822203501</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0.18469101123595499</v>
+      </c>
+      <c r="I151" s="3">
+        <v>0.155507647493416</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0.21246988059647201</v>
+      </c>
+      <c r="K151" s="3">
+        <v>0.22956403269754799</v>
+      </c>
+      <c r="L151" s="3">
+        <v>0.198469579001988</v>
+      </c>
+      <c r="M151" s="3">
+        <v>0.25929608857294301</v>
+      </c>
+      <c r="N151" s="3">
+        <v>6.5645761258916802E-2</v>
+      </c>
+      <c r="O151" s="3">
+        <v>2.4593281468731101E-2</v>
+      </c>
+      <c r="P151" s="3">
+        <v>0.10644769463951299</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>1.71573991244235E-3</v>
+      </c>
+      <c r="R151" s="3">
+        <v>0.32811504412975701</v>
+      </c>
+      <c r="S151" s="3">
+        <v>3.4788704108900802E-2</v>
+      </c>
+      <c r="T151" s="3"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E152" s="3">
+        <v>7.0224719101123604E-4</v>
+      </c>
+      <c r="F152" s="3">
+        <v>-1.3482640232304101E-3</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>5.9691011235955098E-2</v>
+      </c>
+      <c r="I152" s="3">
+        <v>4.1670859418092801E-2</v>
+      </c>
+      <c r="J152" s="3">
+        <v>7.6306668671794906E-2</v>
+      </c>
+      <c r="K152" s="3">
+        <v>2.3841961852860999E-2</v>
+      </c>
+      <c r="L152" s="3">
+        <v>1.22718611150865E-2</v>
+      </c>
+      <c r="M152" s="3">
+        <v>3.4049664770472103E-2</v>
+      </c>
+      <c r="N152" s="3">
+        <v>2.17352202798273E-2</v>
+      </c>
+      <c r="O152" s="3">
+        <v>1.01933695246637E-2</v>
+      </c>
+      <c r="P152" s="3">
+        <v>3.3008482084070603E-2</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>1.93868493665283E-4</v>
+      </c>
+      <c r="R152" s="4">
+        <v>2.5379254253721199E-11</v>
+      </c>
+      <c r="S152" s="3">
+        <v>5.9306150624705001E-4</v>
+      </c>
+      <c r="T152" s="3"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E153" s="3">
+        <v>3.7353089200990099E-2</v>
+      </c>
+      <c r="F153" s="3">
+        <v>-2.54960961018529E-2</v>
+      </c>
+      <c r="G153" s="3">
+        <v>9.9780072963696495E-2</v>
+      </c>
+      <c r="H153" s="3">
+        <v>5.9331933346451399E-2</v>
+      </c>
+      <c r="I153" s="3">
+        <v>-2.6877587886193599E-2</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0.145788425743726</v>
+      </c>
+      <c r="K153" s="3">
+        <v>2.3938830518760099E-2</v>
+      </c>
+      <c r="L153" s="3">
+        <v>-4.51738064210329E-2</v>
+      </c>
+      <c r="M153" s="3">
+        <v>9.2472698592944005E-2</v>
+      </c>
+      <c r="N153" s="3">
+        <v>-1.7352313480377801E-2</v>
+      </c>
+      <c r="O153" s="3">
+        <v>-0.110307487369511</v>
+      </c>
+      <c r="P153" s="3">
+        <v>7.5731805851506004E-2</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>0.716769639546041</v>
+      </c>
+      <c r="R153" s="3">
+        <v>0.68630351849774696</v>
+      </c>
+      <c r="S153" s="3">
+        <v>0.52980241415325802</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E154" s="3">
+        <v>11.1707165732122</v>
+      </c>
+      <c r="F154" s="3">
+        <v>8.8955659714992095</v>
+      </c>
+      <c r="G154" s="3">
+        <v>13.2006711698548</v>
+      </c>
+      <c r="H154" s="3">
+        <v>51.329560334543103</v>
+      </c>
+      <c r="I154" s="3">
+        <v>38.874254103358602</v>
+      </c>
+      <c r="J154" s="3">
+        <v>63.750134324644797</v>
+      </c>
+      <c r="K154" s="3">
+        <v>18.8128869238307</v>
+      </c>
+      <c r="L154" s="3">
+        <v>14.3418742548954</v>
+      </c>
+      <c r="M154" s="3">
+        <v>23.263747446198099</v>
+      </c>
+      <c r="N154" s="3">
+        <v>7.5480231478289301</v>
+      </c>
+      <c r="O154" s="3">
+        <v>2.54211719730097</v>
+      </c>
+      <c r="P154" s="3">
+        <v>12.657824986458699</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>3.18542559295266E-3</v>
+      </c>
+      <c r="R154" s="4">
+        <v>4.4995518422297199E-10</v>
+      </c>
+      <c r="S154" s="4">
+        <v>1.4125809717491199E-6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.14536516853932599</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0.11880696798891401</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0.17051887470771501</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0.26404494382022498</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0.23164249262588399</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0.29644739501456502</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0.18051771117166199</v>
+      </c>
+      <c r="L155" s="3">
+        <v>0.15203392227864401</v>
+      </c>
+      <c r="M155" s="3">
+        <v>0.20763910224451601</v>
+      </c>
+      <c r="N155" s="3">
+        <v>3.4794721856534899E-2</v>
+      </c>
+      <c r="O155" s="3">
+        <v>-3.7461167743313099E-3</v>
+      </c>
+      <c r="P155" s="3">
+        <v>7.2776308722376906E-2</v>
+      </c>
+      <c r="Q155" s="3">
+        <v>7.6158827877949697E-2</v>
+      </c>
+      <c r="R155" s="4">
+        <v>2.0079798712657699E-8</v>
+      </c>
+      <c r="S155" s="3">
+        <v>1.2584862759057499E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E156" s="3">
+        <v>8.8370786516853901</v>
+      </c>
+      <c r="F156" s="3">
+        <v>8.5820848267007808</v>
+      </c>
+      <c r="G156" s="3">
+        <v>9.0909827527203699</v>
+      </c>
+      <c r="H156" s="3">
+        <v>9.3370786516853901</v>
+      </c>
+      <c r="I156" s="3">
+        <v>8.9457672585196999</v>
+      </c>
+      <c r="J156" s="3">
+        <v>9.7268209408194597</v>
+      </c>
+      <c r="K156" s="3">
+        <v>8.9066757493188007</v>
+      </c>
+      <c r="L156" s="3">
+        <v>8.6050900312333596</v>
+      </c>
+      <c r="M156" s="3">
+        <v>9.2124938079841492</v>
+      </c>
+      <c r="N156" s="3">
+        <v>6.0362642745614502E-2</v>
+      </c>
+      <c r="O156" s="3">
+        <v>-0.33487386303192401</v>
+      </c>
+      <c r="P156" s="3">
+        <v>0.45469578717778297</v>
+      </c>
+      <c r="Q156" s="3">
+        <v>0.76194605828270701</v>
+      </c>
+      <c r="R156" s="3">
+        <v>3.5507511616748297E-2</v>
+      </c>
+      <c r="S156" s="3">
+        <v>8.8158526471497897E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E157" s="3">
+        <v>36.457162921348299</v>
+      </c>
+      <c r="F157" s="3">
+        <v>35.706312680793502</v>
+      </c>
+      <c r="G157" s="3">
+        <v>37.204955954599598</v>
+      </c>
+      <c r="H157" s="3">
+        <v>38.148876404494402</v>
+      </c>
+      <c r="I157" s="3">
+        <v>37.1168661909877</v>
+      </c>
+      <c r="J157" s="3">
+        <v>39.185629265626901</v>
+      </c>
+      <c r="K157" s="3">
+        <v>36.226839237057199</v>
+      </c>
+      <c r="L157" s="3">
+        <v>35.435485328985799</v>
+      </c>
+      <c r="M157" s="3">
+        <v>37.029377900220098</v>
+      </c>
+      <c r="N157" s="3">
+        <v>-0.221274836971496</v>
+      </c>
+      <c r="O157" s="3">
+        <v>-1.3073208617258001</v>
+      </c>
+      <c r="P157" s="3">
+        <v>0.87211624919088804</v>
+      </c>
+      <c r="Q157" s="3">
+        <v>0.68985498760654895</v>
+      </c>
+      <c r="R157" s="3">
+        <v>9.4325537428277002E-3</v>
+      </c>
+      <c r="S157" s="3">
+        <v>3.9140446205026E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.17205056179775299</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0.107230964562249</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0.237007470137443</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1.0245786516853901</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0.84479533939747198</v>
+      </c>
+      <c r="J158" s="3">
+        <v>1.20603215080777</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0.35354223433242499</v>
+      </c>
+      <c r="L158" s="3">
+        <v>0.25510059042628203</v>
+      </c>
+      <c r="M158" s="3">
+        <v>0.45403375678555802</v>
+      </c>
+      <c r="N158" s="3">
+        <v>0.17874582861341601</v>
+      </c>
+      <c r="O158" s="3">
+        <v>6.1245621628514997E-2</v>
+      </c>
+      <c r="P158" s="3">
+        <v>0.29682521355114599</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>2.8016644824514101E-3</v>
+      </c>
+      <c r="R158" s="3">
+        <v>0</v>
+      </c>
+      <c r="S158" s="4">
+        <v>1.7875723123950099E-10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.95154494382022503</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0.93495131513769503</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0.96673407812073198</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0.78019662921348298</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0.74902037138680999</v>
+      </c>
+      <c r="J159" s="3">
+        <v>0.80996839265813403</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0.89986376021798398</v>
+      </c>
+      <c r="L159" s="3">
+        <v>0.877386005619325</v>
+      </c>
+      <c r="M159" s="3">
+        <v>0.92097911699647905</v>
+      </c>
+      <c r="N159" s="3">
+        <v>-5.1744328445029499E-2</v>
+      </c>
+      <c r="O159" s="3">
+        <v>-7.9010035747807003E-2</v>
+      </c>
+      <c r="P159" s="3">
+        <v>-2.4961572426467502E-2</v>
+      </c>
+      <c r="Q159" s="3">
+        <v>1.5764653676302099E-4</v>
+      </c>
+      <c r="R159" s="3">
+        <v>0</v>
+      </c>
+      <c r="S159" s="4">
+        <v>3.8458858320211701E-10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>-1.3482640232304101E-3</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>3.5814606741573003E-2</v>
+      </c>
+      <c r="I160" s="3">
+        <v>2.1582861952482098E-2</v>
+      </c>
+      <c r="J160" s="3">
+        <v>4.8641857148641499E-2</v>
+      </c>
+      <c r="K160" s="3">
+        <v>2.0435967302452301E-3</v>
+      </c>
+      <c r="L160" s="3">
+        <v>-1.30785283997282E-3</v>
+      </c>
+      <c r="M160" s="3">
+        <v>4.0326484802997997E-3</v>
+      </c>
+      <c r="N160" s="3">
+        <v>2.7037473593974799E-3</v>
+      </c>
+      <c r="O160" s="3">
+        <v>-1.30785283997282E-3</v>
+      </c>
+      <c r="P160" s="3">
+        <v>5.9913505050165298E-3</v>
+      </c>
+      <c r="Q160" s="3">
+        <v>0.15701595395114301</v>
+      </c>
+      <c r="R160" s="4">
+        <v>2.19537007239978E-7</v>
+      </c>
+      <c r="S160" s="4">
+        <v>1.5884727671000599E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161" s="3">
+        <v>4.7050561797752799E-2</v>
+      </c>
+      <c r="F161" s="3">
+        <v>3.0894875182563199E-2</v>
+      </c>
+      <c r="G161" s="3">
+        <v>6.1801754030919899E-2</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0.163623595505618</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0.13577662486005401</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0.19006607176915899</v>
+      </c>
+      <c r="K161" s="3">
+        <v>9.4686648501362394E-2</v>
+      </c>
+      <c r="L161" s="3">
+        <v>7.2878567340772499E-2</v>
+      </c>
+      <c r="M161" s="3">
+        <v>0.115132331841789</v>
+      </c>
+      <c r="N161" s="3">
+        <v>4.7783424670116002E-2</v>
+      </c>
+      <c r="O161" s="3">
+        <v>2.1897920325222801E-2</v>
+      </c>
+      <c r="P161" s="3">
+        <v>7.4797279269707501E-2</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>3.17019360526351E-4</v>
+      </c>
+      <c r="R161" s="4">
+        <v>2.5757174171303601E-13</v>
+      </c>
+      <c r="S161" s="4">
+        <v>8.5619745529896804E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E162" s="3">
+        <v>7.6198082836148604E-3</v>
+      </c>
+      <c r="F162" s="3">
+        <v>-5.6778111723889399E-2</v>
+      </c>
+      <c r="G162" s="3">
+        <v>7.23586106538225E-2</v>
+      </c>
+      <c r="H162" s="3">
+        <v>-4.5526585036109103E-2</v>
+      </c>
+      <c r="I162" s="3">
+        <v>-0.12590431252043999</v>
+      </c>
+      <c r="J162" s="3">
+        <v>3.5362021802271298E-2</v>
+      </c>
+      <c r="K162" s="3">
+        <v>2.8990682152077899E-2</v>
+      </c>
+      <c r="L162" s="3">
+        <v>-4.0613017802081403E-2</v>
+      </c>
+      <c r="M162" s="3">
+        <v>9.8872872609606394E-2</v>
+      </c>
+      <c r="N162" s="3">
+        <v>2.40393938978305E-2</v>
+      </c>
+      <c r="O162" s="3">
+        <v>-7.0620969808343995E-2</v>
+      </c>
+      <c r="P162" s="3">
+        <v>0.11908132603822801</v>
+      </c>
+      <c r="Q162" s="3">
+        <v>0.613084532919565</v>
+      </c>
+      <c r="R162" s="3">
+        <v>0.313263665194362</v>
+      </c>
+      <c r="S162" s="3">
+        <v>0.170694104676508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163" s="3">
+        <v>4.9157303370786498E-3</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>8.9746899107661596E-3</v>
+      </c>
+      <c r="H163" s="3">
+        <v>3.0196629213483098E-2</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1.7058346094113198E-2</v>
+      </c>
+      <c r="J163" s="3">
+        <v>4.1930417950830599E-2</v>
+      </c>
+      <c r="K163" s="3">
+        <v>3.8828337874659398E-2</v>
+      </c>
+      <c r="L163" s="3">
+        <v>2.42801742653979E-2</v>
+      </c>
+      <c r="M163" s="3">
+        <v>5.2014103663757402E-2</v>
+      </c>
+      <c r="N163" s="3">
+        <v>3.2655451122064701E-2</v>
+      </c>
+      <c r="O163" s="3">
+        <v>1.7771868480431899E-2</v>
+      </c>
+      <c r="P163" s="3">
+        <v>4.8146913134174303E-2</v>
+      </c>
+      <c r="Q163" s="4">
+        <v>1.91613162467788E-5</v>
+      </c>
+      <c r="R163" s="3">
+        <v>1.7831678706858899E-4</v>
+      </c>
+      <c r="S163" s="3">
+        <v>0.36372910514060403</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E164" s="3">
+        <v>14.255913900668199</v>
+      </c>
+      <c r="F164" s="3">
+        <v>13.601776585171001</v>
+      </c>
+      <c r="G164" s="3">
+        <v>14.912598584712599</v>
+      </c>
+      <c r="H164" s="3">
+        <v>18.051743834507899</v>
+      </c>
+      <c r="I164" s="3">
+        <v>17.2442771146704</v>
+      </c>
+      <c r="J164" s="3">
+        <v>18.862758914320501</v>
+      </c>
+      <c r="K164" s="3">
+        <v>16.949628103142999</v>
+      </c>
+      <c r="L164" s="3">
+        <v>16.198517306771901</v>
+      </c>
+      <c r="M164" s="3">
+        <v>17.694121755803</v>
+      </c>
+      <c r="N164" s="3">
+        <v>2.71364721718182</v>
+      </c>
+      <c r="O164" s="3">
+        <v>1.72355370218839</v>
+      </c>
+      <c r="P164" s="3">
+        <v>3.7043027523042</v>
+      </c>
+      <c r="Q164" s="4">
+        <v>7.8354180577225695E-8</v>
+      </c>
+      <c r="R164" s="4">
+        <v>9.0438767585965302E-13</v>
+      </c>
+      <c r="S164" s="3">
+        <v>4.9941092933333299E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E165" s="3">
+        <v>50.339887640449398</v>
+      </c>
+      <c r="F165" s="3">
+        <v>47.302571617995604</v>
+      </c>
+      <c r="G165" s="3">
+        <v>53.382313560967503</v>
+      </c>
+      <c r="H165" s="3">
+        <v>67.015449438202296</v>
+      </c>
+      <c r="I165" s="3">
+        <v>62.791673428633104</v>
+      </c>
+      <c r="J165" s="3">
+        <v>71.255029513013298</v>
+      </c>
+      <c r="K165" s="3">
+        <v>59.075613079019099</v>
+      </c>
+      <c r="L165" s="3">
+        <v>55.433466958001702</v>
+      </c>
+      <c r="M165" s="3">
+        <v>62.664861226740797</v>
+      </c>
+      <c r="N165" s="3">
+        <v>8.7026069252671192</v>
+      </c>
+      <c r="O165" s="3">
+        <v>3.9641454799889102</v>
+      </c>
+      <c r="P165" s="3">
+        <v>13.4267151986478</v>
+      </c>
+      <c r="Q165" s="3">
+        <v>3.0515623554802998E-4</v>
+      </c>
+      <c r="R165" s="4">
+        <v>3.5438629808481902E-10</v>
+      </c>
+      <c r="S165" s="3">
+        <v>5.1752602432160203E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" s="3">
+        <v>4.4050179900643402E-2</v>
+      </c>
+      <c r="F166" s="3">
+        <v>3.6670547984633303E-2</v>
+      </c>
+      <c r="G166" s="3">
+        <v>5.1404420331246502E-2</v>
+      </c>
+      <c r="H166" s="3">
+        <v>9.7407106611631794E-2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>8.3518898700108701E-2</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0.111405216643103</v>
+      </c>
+      <c r="K166" s="3">
+        <v>4.9064004553953898E-2</v>
+      </c>
+      <c r="L166" s="3">
+        <v>4.0621583938138799E-2</v>
+      </c>
+      <c r="M166" s="3">
+        <v>5.7405704335734602E-2</v>
+      </c>
+      <c r="N166" s="3">
+        <v>4.9256875992890201E-3</v>
+      </c>
+      <c r="O166" s="3">
+        <v>-6.2922057508312803E-3</v>
+      </c>
+      <c r="P166" s="3">
+        <v>1.6185205749091901E-2</v>
+      </c>
+      <c r="Q166" s="3">
+        <v>0.38997210186737302</v>
+      </c>
+      <c r="R166" s="4">
+        <v>3.31892291427494E-11</v>
+      </c>
+      <c r="S166" s="4">
+        <v>5.8017328719017802E-9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E167" s="3">
+        <v>6.9278631623071796E-2</v>
+      </c>
+      <c r="F167" s="3">
+        <v>5.6782733736620702E-3</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0.13336075239116699</v>
+      </c>
+      <c r="H167" s="3">
+        <v>-0.13681875226389401</v>
+      </c>
+      <c r="I167" s="3">
+        <v>-0.22144541846381699</v>
+      </c>
+      <c r="J167" s="3">
+        <v>-5.1730817454034697E-2</v>
+      </c>
+      <c r="K167" s="3">
+        <v>3.3135205027501398E-2</v>
+      </c>
+      <c r="L167" s="3">
+        <v>-3.4016007579980398E-2</v>
+      </c>
+      <c r="M167" s="3">
+        <v>0.100835203019849</v>
+      </c>
+      <c r="N167" s="3">
+        <v>-3.6949237829741903E-2</v>
+      </c>
+      <c r="O167" s="3">
+        <v>-0.12967995756584599</v>
+      </c>
+      <c r="P167" s="3">
+        <v>5.5924377781742599E-2</v>
+      </c>
+      <c r="Q167" s="3">
+        <v>0.435410855478855</v>
+      </c>
+      <c r="R167" s="3">
+        <v>1.4237038191433599E-4</v>
+      </c>
+      <c r="S167" s="3">
+        <v>2.11608165563293E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168" s="3">
+        <v>206.23066575528401</v>
+      </c>
+      <c r="F168" s="3">
+        <v>179.74310775001501</v>
+      </c>
+      <c r="G168" s="3">
+        <v>232.49320583080501</v>
+      </c>
+      <c r="H168" s="3">
+        <v>431.49513569473203</v>
+      </c>
+      <c r="I168" s="3">
+        <v>369.827670196768</v>
+      </c>
+      <c r="J168" s="3">
+        <v>493.28851835677699</v>
+      </c>
+      <c r="K168" s="3">
+        <v>302.47396507918103</v>
+      </c>
+      <c r="L168" s="3">
+        <v>256.37811081778301</v>
+      </c>
+      <c r="M168" s="3">
+        <v>347.66678081824301</v>
+      </c>
+      <c r="N168" s="3">
+        <v>95.016556779548793</v>
+      </c>
+      <c r="O168" s="3">
+        <v>41.855186893689002</v>
+      </c>
+      <c r="P168" s="3">
+        <v>148.01437704390199</v>
+      </c>
+      <c r="Q168" s="3">
+        <v>4.1446085966931302E-4</v>
+      </c>
+      <c r="R168" s="4">
+        <v>4.7947645853696498E-11</v>
+      </c>
+      <c r="S168" s="3">
+        <v>9.8808416938034305E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.92907303370786498</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.90941599051274202</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0.94732558252096599</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0.86727528089887596</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0.84157892342917395</v>
+      </c>
+      <c r="J169" s="3">
+        <v>0.89156714398655601</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0.90122615803814698</v>
+      </c>
+      <c r="L169" s="3">
+        <v>0.87887978401844802</v>
+      </c>
+      <c r="M169" s="3">
+        <v>0.92221013423768206</v>
+      </c>
+      <c r="N169" s="3">
+        <v>-2.9272418332670001E-2</v>
+      </c>
+      <c r="O169" s="3">
+        <v>-5.8241751849223297E-2</v>
+      </c>
+      <c r="P169" s="3">
+        <v>-6.08345867808183E-4</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>4.5711627283087503E-2</v>
+      </c>
+      <c r="R169" s="3">
+        <v>1.1278571747364E-4</v>
+      </c>
+      <c r="S169" s="3">
+        <v>4.4242654163761101E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.386938202247191</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.35044771330015101</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0.42202419681220898</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0.53019662921348298</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0.49280618449270402</v>
+      </c>
+      <c r="J170" s="3">
+        <v>0.56618257955224005</v>
+      </c>
+      <c r="K170" s="3">
+        <v>0.461171662125341</v>
+      </c>
+      <c r="L170" s="3">
+        <v>0.42440718500215202</v>
+      </c>
+      <c r="M170" s="3">
+        <v>0.49657374142836502</v>
+      </c>
+      <c r="N170" s="3">
+        <v>7.4422894406515006E-2</v>
+      </c>
+      <c r="O170" s="3">
+        <v>2.3695071295010799E-2</v>
+      </c>
+      <c r="P170" s="3">
+        <v>0.12515071751801901</v>
+      </c>
+      <c r="Q170" s="3">
+        <v>3.9959933802350698E-3</v>
+      </c>
+      <c r="R170" s="4">
+        <v>4.2896940000147798E-8</v>
+      </c>
+      <c r="S170" s="3">
+        <v>8.5620348081580904E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1.89606741573034E-2</v>
+      </c>
+      <c r="F171" s="3">
+        <v>8.4173288664018894E-3</v>
+      </c>
+      <c r="G171" s="3">
+        <v>2.80995250661824E-2</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0.118679775280899</v>
+      </c>
+      <c r="I171" s="3">
+        <v>9.4266370229149896E-2</v>
+      </c>
+      <c r="J171" s="3">
+        <v>0.141688685950625</v>
+      </c>
+      <c r="K171" s="3">
+        <v>4.0190735694822899E-2</v>
+      </c>
+      <c r="L171" s="3">
+        <v>2.5407118197806999E-2</v>
+      </c>
+      <c r="M171" s="3">
+        <v>5.3611955371675298E-2</v>
+      </c>
+      <c r="N171" s="3">
+        <v>2.11037718519426E-2</v>
+      </c>
+      <c r="O171" s="3">
+        <v>3.1421638674539701E-3</v>
+      </c>
+      <c r="P171" s="3">
+        <v>3.8080643039003201E-2</v>
+      </c>
+      <c r="Q171" s="3">
+        <v>2.1061906264964701E-2</v>
+      </c>
+      <c r="R171" s="4">
+        <v>2.6645352591003801E-14</v>
+      </c>
+      <c r="S171" s="4">
+        <v>2.45708220436569E-8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E172" s="3">
+        <v>11.6791102019651</v>
+      </c>
+      <c r="F172" s="3">
+        <v>7.8653310472903701</v>
+      </c>
+      <c r="G172" s="3">
+        <v>15.424755619632901</v>
+      </c>
+      <c r="H172" s="3">
+        <v>54.599185533189797</v>
+      </c>
+      <c r="I172" s="3">
+        <v>41.686536134693803</v>
+      </c>
+      <c r="J172" s="3">
+        <v>67.726735819981201</v>
+      </c>
+      <c r="K172" s="3">
+        <v>19.0236233459425</v>
+      </c>
+      <c r="L172" s="3">
+        <v>13.300563607488799</v>
+      </c>
+      <c r="M172" s="3">
+        <v>24.745526984954001</v>
+      </c>
+      <c r="N172" s="3">
+        <v>7.3181846926948904</v>
+      </c>
+      <c r="O172" s="3">
+        <v>0.43410237106604399</v>
+      </c>
+      <c r="P172" s="3">
+        <v>14.1516823028632</v>
+      </c>
+      <c r="Q172" s="3">
+        <v>3.7531510751226203E-2</v>
+      </c>
+      <c r="R172" s="4">
+        <v>5.4741100541377798E-10</v>
+      </c>
+      <c r="S172" s="4">
+        <v>9.4490231972166296E-7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.25491573033707898</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.22220833476518601</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0.28621863152694899</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0.37991573033707898</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0.34354979005479402</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0.41487717623734099</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0.28269754768392402</v>
+      </c>
+      <c r="L173" s="3">
+        <v>0.24944089124968299</v>
+      </c>
+      <c r="M173" s="3">
+        <v>0.31459180629800099</v>
+      </c>
+      <c r="N173" s="3">
+        <v>2.6777240302482901E-2</v>
+      </c>
+      <c r="O173" s="3">
+        <v>-1.8838050229045701E-2</v>
+      </c>
+      <c r="P173" s="3">
+        <v>7.23485131692609E-2</v>
+      </c>
+      <c r="Q173" s="3">
+        <v>0.248349612429308</v>
+      </c>
+      <c r="R173" s="4">
+        <v>3.1742374373422401E-7</v>
+      </c>
+      <c r="S173" s="4">
+        <v>7.9819157862592901E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.83787039114002704</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0.79849178178533597</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0.87730080410168898</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0.63179484290447596</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0.58534376344612604</v>
+      </c>
+      <c r="J174" s="3">
+        <v>0.67832644565594502</v>
+      </c>
+      <c r="K174" s="3">
+        <v>0.77585430178735504</v>
+      </c>
+      <c r="L174" s="3">
+        <v>0.73129050856910305</v>
+      </c>
+      <c r="M174" s="3">
+        <v>0.81992215760829201</v>
+      </c>
+      <c r="N174" s="3">
+        <v>-6.2048833547096401E-2</v>
+      </c>
+      <c r="O174" s="3">
+        <v>-0.121372479584236</v>
+      </c>
+      <c r="P174" s="3">
+        <v>-2.5310569316652999E-3</v>
+      </c>
+      <c r="Q174" s="3">
+        <v>4.1085694470627501E-2</v>
+      </c>
+      <c r="R174" s="4">
+        <v>3.4133140758285702E-11</v>
+      </c>
+      <c r="S174" s="4">
+        <v>1.10210265484856E-5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.72737633309711602</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0.69175576943747796</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0.76277443100874498</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0.94220407267792405</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0.91093144554712202</v>
+      </c>
+      <c r="J175" s="3">
+        <v>0.97340753999443197</v>
+      </c>
+      <c r="K175" s="3">
+        <v>0.87370037319432403</v>
+      </c>
+      <c r="L175" s="3">
+        <v>0.84036445596682496</v>
+      </c>
+      <c r="M175" s="3">
+        <v>0.90704612460882805</v>
+      </c>
+      <c r="N175" s="3">
+        <v>0.14614278741184999</v>
+      </c>
+      <c r="O175" s="3">
+        <v>9.7204577068133902E-2</v>
+      </c>
+      <c r="P175" s="3">
+        <v>0.195091936242936</v>
+      </c>
+      <c r="Q175" s="4">
+        <v>4.8601046324282201E-9</v>
+      </c>
+      <c r="R175" s="3">
+        <v>0</v>
+      </c>
+      <c r="S175" s="3">
+        <v>3.2952564150212599E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E176" s="3">
+        <v>-0.45462514619144201</v>
+      </c>
+      <c r="F176" s="3">
+        <v>-0.51821279775817697</v>
+      </c>
+      <c r="G176" s="3">
+        <v>-0.39099714059031299</v>
+      </c>
+      <c r="H176" s="3">
+        <v>-0.45224327864936398</v>
+      </c>
+      <c r="I176" s="3">
+        <v>-0.52191519861310498</v>
+      </c>
+      <c r="J176" s="3">
+        <v>-0.38240931245344101</v>
+      </c>
+      <c r="K176" s="3">
+        <v>-0.41744652359520501</v>
+      </c>
+      <c r="L176" s="3">
+        <v>-0.48570555123956499</v>
+      </c>
+      <c r="M176" s="3">
+        <v>-0.35004532613309802</v>
+      </c>
+      <c r="N176" s="3">
+        <v>3.78754153734518E-2</v>
+      </c>
+      <c r="O176" s="3">
+        <v>-5.48596536434185E-2</v>
+      </c>
+      <c r="P176" s="3">
+        <v>0.13133733787666499</v>
+      </c>
+      <c r="Q176" s="3">
+        <v>0.42112066649852498</v>
+      </c>
+      <c r="R176" s="3">
+        <v>0.960557623915956</v>
+      </c>
+      <c r="S176" s="3">
+        <v>0.48331869195504501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.110252808988764</v>
+      </c>
+      <c r="F177" s="3">
+        <v>8.6593028266799502E-2</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0.132508095328706</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0.22823033707865201</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0.19671238197197699</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0.25834379780330402</v>
+      </c>
+      <c r="K177" s="3">
+        <v>0.17506811989100801</v>
+      </c>
+      <c r="L177" s="3">
+        <v>0.14691801640360999</v>
+      </c>
+      <c r="M177" s="3">
+        <v>0.201855825558243</v>
+      </c>
+      <c r="N177" s="3">
+        <v>6.5946177632183203E-2</v>
+      </c>
+      <c r="O177" s="3">
+        <v>2.96118464925475E-2</v>
+      </c>
+      <c r="P177" s="3">
+        <v>0.101742240234981</v>
+      </c>
+      <c r="Q177" s="3">
+        <v>3.3820552618396403E-4</v>
+      </c>
+      <c r="R177" s="4">
+        <v>1.77137859935783E-9</v>
+      </c>
+      <c r="S177" s="3">
+        <v>1.15997089975377E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.16573033707865201</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0.13839858182186501</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0.193062092335438</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0.28019662921348298</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.24650922789045501</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0.31247953615448898</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0.22479564032697499</v>
+      </c>
+      <c r="L178" s="3">
+        <v>0.194575383624147</v>
+      </c>
+      <c r="M178" s="3">
+        <v>0.25501589702980398</v>
+      </c>
+      <c r="N178" s="3">
+        <v>6.02172182591924E-2</v>
+      </c>
+      <c r="O178" s="3">
+        <v>1.9030478395717001E-2</v>
+      </c>
+      <c r="P178" s="3">
+        <v>0.10087226857079799</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>3.9652235407115098E-3</v>
+      </c>
+      <c r="R178" s="4">
+        <v>1.62912418000261E-7</v>
+      </c>
+      <c r="S178" s="3">
+        <v>1.5212670481681701E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.35042134831460697</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0.31466624049566899</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0.38477196175152201</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0.60884831460674205</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0.57226384392678897</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0.64402829090467195</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0.48433242506812002</v>
+      </c>
+      <c r="L179" s="3">
+        <v>0.44747411991498398</v>
+      </c>
+      <c r="M179" s="3">
+        <v>0.51982833240109205</v>
+      </c>
+      <c r="N179" s="3">
+        <v>0.133847931910725</v>
+      </c>
+      <c r="O179" s="3">
+        <v>8.3425387743740198E-2</v>
+      </c>
+      <c r="P179" s="3">
+        <v>0.18427047607770899</v>
+      </c>
+      <c r="Q179" s="4">
+        <v>1.9129672908268301E-7</v>
+      </c>
+      <c r="R179" s="3">
+        <v>0</v>
+      </c>
+      <c r="S179" s="4">
+        <v>1.6708889258865201E-6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>65</v>
+      </c>
+      <c r="B180" t="s">
+        <v>66</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.47823033707865198</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.440813031307138</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0.51424314846814301</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0.200842696629213</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0.17139458512050301</v>
+      </c>
+      <c r="J180" s="3">
+        <v>0.23029080813792399</v>
+      </c>
+      <c r="K180" s="3">
+        <v>0.28950953678474101</v>
+      </c>
+      <c r="L180" s="3">
+        <v>0.25601856486764302</v>
+      </c>
+      <c r="M180" s="3">
+        <v>0.32163811088167599</v>
+      </c>
+      <c r="N180" s="3">
+        <v>-0.18997795670942699</v>
+      </c>
+      <c r="O180" s="3">
+        <v>-0.23911671843874699</v>
+      </c>
+      <c r="P180" s="3">
+        <v>-0.140839194980106</v>
+      </c>
+      <c r="Q180" s="4">
+        <v>4.0401148445822101E-14</v>
+      </c>
+      <c r="R180" s="3">
+        <v>0</v>
+      </c>
+      <c r="S180" s="4">
+        <v>8.0838198436517002E-5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>67</v>
+      </c>
+      <c r="B181" t="s">
+        <v>68</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.16783707865168501</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0.13971062155255101</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0.19455904136879701</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0.15814948292325401</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0.21544602269472299</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0.22275204359673001</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0.19198155745456</v>
+      </c>
+      <c r="M181" s="3">
+        <v>0.25216013191873698</v>
+      </c>
+      <c r="N181" s="3">
+        <v>5.5104399473410302E-2</v>
+      </c>
+      <c r="O181" s="3">
+        <v>1.43774753764776E-2</v>
+      </c>
+      <c r="P181" s="3">
+        <v>9.6234315957016703E-2</v>
+      </c>
+      <c r="Q181" s="3">
+        <v>7.9834691357047495E-3</v>
+      </c>
+      <c r="R181" s="3">
+        <v>0.33116230668930102</v>
+      </c>
+      <c r="S181" s="3">
+        <v>9.6299725904767805E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D181" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S61">
     <sortCondition ref="D1:D61"/>
   </sortState>

--- a/data_terciles.xlsx
+++ b/data_terciles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFCFE7-8AEE-8F4B-BF75-A1892F80DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891B1B7-4946-574B-A656-C648E02B862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{FB669BDA-7798-9640-B2B9-EABE7DDFC01C}"/>
   </bookViews>
@@ -693,11 +693,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>72</v>
@@ -831,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>72</v>
@@ -890,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>72</v>
@@ -949,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>72</v>
@@ -1008,7 +1009,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>72</v>
@@ -1067,7 +1068,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>72</v>
@@ -1126,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>72</v>
@@ -1185,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>72</v>
@@ -1244,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>72</v>
@@ -1303,7 +1304,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>72</v>
@@ -1362,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>72</v>
@@ -1421,7 +1422,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>72</v>
@@ -1480,7 +1481,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>72</v>
@@ -1539,7 +1540,7 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>72</v>
@@ -1598,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>72</v>
@@ -1657,7 +1658,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>72</v>
@@ -1716,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
@@ -1775,7 +1776,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>72</v>
@@ -1834,7 +1835,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -1893,7 +1894,7 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -1952,7 +1953,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>72</v>
@@ -2011,7 +2012,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>72</v>
@@ -2070,7 +2071,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -2129,7 +2130,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>72</v>
@@ -2188,7 +2189,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>72</v>
@@ -2247,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>72</v>
@@ -2306,7 +2307,7 @@
         <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
@@ -2365,7 +2366,7 @@
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>72</v>
@@ -2424,7 +2425,7 @@
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>72</v>
@@ -2483,7 +2484,7 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>72</v>
@@ -2534,7 +2535,7 @@
         <v>0.64754578168872701</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>2.0667564488220401E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>0.93798373972985305</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>2.49032019983342E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>0.73884770830482205</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>4.2500482218301699E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>0.61783482938558498</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>4.8606518290021702E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>0.52863759203800198</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>3.6820983062850803E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>0.56075446398447304</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>1.2521396657148701E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>0.81780316560994204</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>0.35828846484084398</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>6.8703268434687104E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>0.83520896373550702</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>3.5062734909052698E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>1.9552537366962499E-10</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>0.43752739263601598</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>0.565166619586282</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>0.35585217171837802</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>7.7580412475764004E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>1.5543122344752201E-14</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>6.6613381477509402E-16</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>0.29707619315232398</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>7.6560979778150795E-13</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>3.5728086927644398E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>1.3990423974874499E-7</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>0.915573930518638</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>1.7726891954339401E-8</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>1.3402843590526501E-7</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>19</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>0.41974770344156798</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>1.08058211232054E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>25</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>3.4501956847066098E-10</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>1.05073039158299E-9</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>4.6330969150520903E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>6.3325442628512599E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>1.4965184558235499E-7</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>37</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>2.2151860390451401E-7</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>1.19748655436069E-11</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>2.4609826243993099E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>1.8719580098873799E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>47</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>2.88747814658485E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>49</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>2.6467716907063702E-13</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>5.1043613780166197E-12</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>53</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>2.2280371924638899E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>5.9001046270879004E-9</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>57</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>4.2979979397728098E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>59</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>8.6786539986373895E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>2.0666159149720399E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>62</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>2.02519794163964E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>63</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>67</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>0.82045194847036396</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>11</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>8.7712152132546401E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>0.95172762253269605</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>2.8864321099941701E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>3.3256086773292302E-10</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>19</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>1.55166256804566E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>6.81903058969979E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>5.37569988523501E-13</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>25</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>5.3290705182007498E-15</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>27</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>3.6405565762009902E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>2.92240176502645E-8</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>31</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>1.8458381204040902E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>33</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>1.3583050560361101E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>35</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>6.8949311108028599E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>37</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>1.6395552493664301E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>3.1359280061593602E-8</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>2.8801747784439301E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>2.6201263381153701E-14</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>45</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>2.44815565639822E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>2.7067594189402099E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>49</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>8.8332430259185902E-10</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>51</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>1.5403494035837201E-9</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>53</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>2.9394006824330402E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>6.1841988462296698E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>2.3292299644595001E-8</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>59</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>7.20650335450657E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>61</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>9.2038803647036496E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>62</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>4.34420885092557E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>63</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>7.3883998452650701E-7</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>65</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>67</v>
       </c>
@@ -11416,7 +11417,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D181" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}"/>
+  <autoFilter ref="D1:D181" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ben Rev"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S61">
     <sortCondition ref="D1:D61"/>
   </sortState>

--- a/data_terciles.xlsx
+++ b/data_terciles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891B1B7-4946-574B-A656-C648E02B862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F96BB0-EECD-BF42-BCE8-43753B8313B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{FB669BDA-7798-9640-B2B9-EABE7DDFC01C}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,7 +358,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>72</v>
@@ -832,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>72</v>
@@ -891,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>72</v>
@@ -950,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>72</v>
@@ -1009,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>72</v>
@@ -1068,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>72</v>
@@ -1127,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>72</v>
@@ -1186,7 +1185,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>72</v>
@@ -1245,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>72</v>
@@ -1304,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>72</v>
@@ -1363,7 +1362,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>72</v>
@@ -1422,7 +1421,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>72</v>
@@ -1481,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>72</v>
@@ -1540,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>72</v>
@@ -1599,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>72</v>
@@ -1658,7 +1657,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>72</v>
@@ -1717,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
@@ -1776,7 +1775,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>72</v>
@@ -1835,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -1894,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -1953,7 +1952,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>72</v>
@@ -2012,7 +2011,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>72</v>
@@ -2071,7 +2070,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -2130,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>72</v>
@@ -2189,7 +2188,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>72</v>
@@ -2248,7 +2247,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>72</v>
@@ -2307,7 +2306,7 @@
         <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
@@ -2366,7 +2365,7 @@
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>72</v>
@@ -2425,7 +2424,7 @@
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>72</v>
@@ -2484,7 +2483,7 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>72</v>
@@ -7852,7 +7851,7 @@
       <c r="B122" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" t="s">
         <v>81</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -7912,7 +7911,7 @@
       <c r="B123" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" t="s">
         <v>81</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -7972,7 +7971,7 @@
       <c r="B124" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" t="s">
         <v>81</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -8032,7 +8031,7 @@
       <c r="B125" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" t="s">
         <v>81</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -8092,7 +8091,7 @@
       <c r="B126" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" t="s">
         <v>81</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -8152,7 +8151,7 @@
       <c r="B127" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" t="s">
         <v>81</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -8212,7 +8211,7 @@
       <c r="B128" t="s">
         <v>24</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" t="s">
         <v>81</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -8272,7 +8271,7 @@
       <c r="B129" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" t="s">
         <v>81</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -8332,7 +8331,7 @@
       <c r="B130" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" t="s">
         <v>81</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -8392,7 +8391,7 @@
       <c r="B131" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" t="s">
         <v>81</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -8452,7 +8451,7 @@
       <c r="B132" t="s">
         <v>32</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" t="s">
         <v>81</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -8512,7 +8511,7 @@
       <c r="B133" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" t="s">
         <v>81</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -8572,7 +8571,7 @@
       <c r="B134" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" t="s">
         <v>81</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -8632,7 +8631,7 @@
       <c r="B135" t="s">
         <v>38</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" t="s">
         <v>81</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -8692,7 +8691,7 @@
       <c r="B136" t="s">
         <v>40</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" t="s">
         <v>81</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -8752,7 +8751,7 @@
       <c r="B137" t="s">
         <v>42</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" t="s">
         <v>81</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -8812,7 +8811,7 @@
       <c r="B138" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" t="s">
         <v>81</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -8872,7 +8871,7 @@
       <c r="B139" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" t="s">
         <v>81</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -8932,7 +8931,7 @@
       <c r="B140" t="s">
         <v>48</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" t="s">
         <v>81</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -8992,7 +8991,7 @@
       <c r="B141" t="s">
         <v>50</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" t="s">
         <v>81</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -9052,7 +9051,7 @@
       <c r="B142" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" t="s">
         <v>81</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -9112,7 +9111,7 @@
       <c r="B143" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" t="s">
         <v>81</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -9172,7 +9171,7 @@
       <c r="B144" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" t="s">
         <v>81</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -9232,7 +9231,7 @@
       <c r="B145" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" t="s">
         <v>81</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -9292,7 +9291,7 @@
       <c r="B146" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" t="s">
         <v>81</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -9352,7 +9351,7 @@
       <c r="B147" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" t="s">
         <v>81</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -9412,7 +9411,7 @@
       <c r="B148" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" t="s">
         <v>81</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -9472,7 +9471,7 @@
       <c r="B149" t="s">
         <v>64</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" t="s">
         <v>81</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -9532,7 +9531,7 @@
       <c r="B150" t="s">
         <v>66</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" t="s">
         <v>81</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -9592,7 +9591,7 @@
       <c r="B151" t="s">
         <v>68</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" t="s">
         <v>81</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -9652,7 +9651,7 @@
       <c r="B152" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" t="s">
         <v>82</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -9712,7 +9711,7 @@
       <c r="B153" t="s">
         <v>14</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" t="s">
         <v>82</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -9771,7 +9770,7 @@
       <c r="B154" t="s">
         <v>16</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" t="s">
         <v>82</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -9830,7 +9829,7 @@
       <c r="B155" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" t="s">
         <v>82</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -9889,7 +9888,7 @@
       <c r="B156" t="s">
         <v>20</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" t="s">
         <v>82</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -9948,7 +9947,7 @@
       <c r="B157" t="s">
         <v>22</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" t="s">
         <v>82</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -10007,7 +10006,7 @@
       <c r="B158" t="s">
         <v>24</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" t="s">
         <v>82</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -10066,7 +10065,7 @@
       <c r="B159" t="s">
         <v>26</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" t="s">
         <v>82</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -10125,7 +10124,7 @@
       <c r="B160" t="s">
         <v>28</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" t="s">
         <v>82</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -10184,7 +10183,7 @@
       <c r="B161" t="s">
         <v>30</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" t="s">
         <v>82</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -10243,7 +10242,7 @@
       <c r="B162" t="s">
         <v>32</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" t="s">
         <v>82</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -10302,7 +10301,7 @@
       <c r="B163" t="s">
         <v>34</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" t="s">
         <v>82</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -10361,7 +10360,7 @@
       <c r="B164" t="s">
         <v>36</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" t="s">
         <v>82</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -10420,7 +10419,7 @@
       <c r="B165" t="s">
         <v>38</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" t="s">
         <v>82</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -10479,7 +10478,7 @@
       <c r="B166" t="s">
         <v>40</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" t="s">
         <v>82</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -10538,7 +10537,7 @@
       <c r="B167" t="s">
         <v>42</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -10597,7 +10596,7 @@
       <c r="B168" t="s">
         <v>44</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" t="s">
         <v>82</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -10656,7 +10655,7 @@
       <c r="B169" t="s">
         <v>46</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" t="s">
         <v>82</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -10715,7 +10714,7 @@
       <c r="B170" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" t="s">
         <v>82</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -10774,7 +10773,7 @@
       <c r="B171" t="s">
         <v>50</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" t="s">
         <v>82</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -10833,7 +10832,7 @@
       <c r="B172" t="s">
         <v>52</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" t="s">
         <v>82</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -10892,7 +10891,7 @@
       <c r="B173" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" t="s">
         <v>82</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -10951,7 +10950,7 @@
       <c r="B174" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" t="s">
         <v>82</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -11010,7 +11009,7 @@
       <c r="B175" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C175" t="s">
         <v>82</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -11069,7 +11068,7 @@
       <c r="B176" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" t="s">
         <v>82</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -11128,7 +11127,7 @@
       <c r="B177" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" t="s">
         <v>82</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -11187,7 +11186,7 @@
       <c r="B178" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" t="s">
         <v>82</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -11246,7 +11245,7 @@
       <c r="B179" t="s">
         <v>64</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" t="s">
         <v>82</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -11305,7 +11304,7 @@
       <c r="B180" t="s">
         <v>66</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" t="s">
         <v>82</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -11364,7 +11363,7 @@
       <c r="B181" t="s">
         <v>68</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" t="s">
         <v>82</v>
       </c>
       <c r="D181" s="2" t="s">

--- a/data_terciles.xlsx
+++ b/data_terciles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F96BB0-EECD-BF42-BCE8-43753B8313B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477DC6F-1AF5-3746-B381-1477D1BD985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{FB669BDA-7798-9640-B2B9-EABE7DDFC01C}"/>
   </bookViews>
@@ -692,12 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2534,7 +2533,7 @@
         <v>0.64754578168872701</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>2.0667564488220401E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>0.93798373972985305</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>2.49032019983342E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>0.73884770830482205</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>4.2500482218301699E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>0.61783482938558498</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>4.8606518290021702E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>0.52863759203800198</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>3.6820983062850803E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>0.56075446398447304</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>1.2521396657148701E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>0.81780316560994204</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>0.35828846484084398</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>6.8703268434687104E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>0.83520896373550702</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>3.5062734909052698E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>1.9552537366962499E-10</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>0.43752739263601598</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>0.565166619586282</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>0.35585217171837802</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>7.7580412475764004E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>1.5543122344752201E-14</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>6.6613381477509402E-16</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>0.29707619315232398</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>7.6560979778150795E-13</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>3.5728086927644398E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>1.3990423974874499E-7</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>0.915573930518638</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>1.7726891954339401E-8</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>1.3402843590526501E-7</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>19</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>0.41974770344156798</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>1.08058211232054E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>25</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>3.4501956847066098E-10</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>1.05073039158299E-9</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>4.6330969150520903E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>6.3325442628512599E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>1.4965184558235499E-7</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>37</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>2.2151860390451401E-7</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>1.19748655436069E-11</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>2.4609826243993099E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>1.8719580098873799E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>47</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>2.88747814658485E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>49</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>2.6467716907063702E-13</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>5.1043613780166197E-12</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>53</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>2.2280371924638899E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>5.9001046270879004E-9</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>57</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>4.2979979397728098E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>59</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>8.6786539986373895E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>2.0666159149720399E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>62</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>2.02519794163964E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>63</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>67</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>0.82045194847036396</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>11</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>8.7712152132546401E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>0.95172762253269605</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>2.8864321099941701E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>3.3256086773292302E-10</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>19</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>1.55166256804566E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>6.81903058969979E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>5.37569988523501E-13</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>25</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>5.3290705182007498E-15</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>27</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>3.6405565762009902E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>2.92240176502645E-8</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>31</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>1.8458381204040902E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>33</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>1.3583050560361101E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>35</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>6.8949311108028599E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>37</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>1.6395552493664301E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>3.1359280061593602E-8</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>2.8801747784439301E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>2.6201263381153701E-14</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>45</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>2.44815565639822E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>2.7067594189402099E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>49</v>
       </c>
@@ -7254,7 +7253,7 @@
         <v>8.8332430259185902E-10</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>51</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>1.5403494035837201E-9</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>53</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>2.9394006824330402E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>6.1841988462296698E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>2.3292299644595001E-8</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>59</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>7.20650335450657E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>61</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>9.2038803647036496E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>62</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>4.34420885092557E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>63</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>7.3883998452650701E-7</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>65</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>67</v>
       </c>
@@ -11416,13 +11415,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D181" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ben Rev"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D181" xr:uid="{648B546F-8C97-294C-8991-7BD4B2B32DAC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S61">
     <sortCondition ref="D1:D61"/>
   </sortState>
